--- a/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE2B6AF-6203-774C-9F4A-FE6B306B17A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346EC55-0CBC-9E40-88CD-13275AC26BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <definedName name="STRREV">_xlfn.LAMBDA(_xlpm.word, _xlfn.CONCAT(MID(_xlpm.word,_xlfn.SEQUENCE(LEN(_xlpm.word),,LEN(_xlpm.word),-1),1)))</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="403">
   <si>
     <r>
       <rPr>
@@ -1122,9 +1123,6 @@
     <t>The CDS Client MAY satisfy some of the desired prefetched templates via some internal service or even its own FHIR server.</t>
   </si>
   <si>
-    <t>The CDS Client SHALL only provide access to resources that are within the user's authorized scope.</t>
-  </si>
-  <si>
     <t>The relative URL [constructed when a CDS client processes prefetch templates] may be appended to the base URL for the CDS Client's FHIR server and directly invoked</t>
   </si>
   <si>
@@ -1282,9 +1280,6 @@
     <t>https://cds-hooks.hl7.org/2.0/#card-attributes</t>
   </si>
   <si>
-    <t>[When sending a card object] the uuid field SHALL be included in any subsequent calls to the CDS service's feedback endpoint.</t>
-  </si>
-  <si>
     <t xml:space="preserve">When sending a card </t>
   </si>
   <si>
@@ -1324,9 +1319,6 @@
     <t>[When sending a card object,]  the source is a required field [and SHALL be populated with a] [source](https://cds-hooks.hl7.org/2.0/#source) object</t>
   </si>
   <si>
-    <t>[When sending a card object,]  the source field [/ source object] should be the primary source of guidance for the decision support the card represents.</t>
-  </si>
-  <si>
     <t>[When sending a card object,]  the suggestion field  allows a service to suggest a set of changes in the context of the current activity [and is sent as a] array of [suggestion](https://cds-hooks.hl7.org/2.0/#suggestion) [objects]</t>
   </si>
   <si>
@@ -1345,24 +1337,15 @@
     <t>[When sending a card object,]  the selectionBehavior field [SHALL be sent as a] string data type [and SHALL be present if the suggestions field in the card is populated]</t>
   </si>
   <si>
-    <t>[When sending a card object,] CDS Clients that do not understand the value [in the selectionBehavior field] MUST treat the card as an error.</t>
-  </si>
-  <si>
     <t>[When sending a card object,]  the CDS service MAY return a list of override reasons to the CDS client</t>
   </si>
   <si>
     <t>When sending a card, and override reasons are present</t>
   </si>
   <si>
-    <t>[When sending a card object,]  if override reasons are present … the CDS Client SHOULD present these reasons to the clinician when they dismiss a card.</t>
-  </si>
-  <si>
     <t>[When sending a card object,]  if override reasons are present, the CDS Service MUST populate a display value for each reason's [Coding](https://cds-hooks.hl7.org/2.0/#coding)</t>
   </si>
   <si>
-    <t>[When sending a card object,]  if override reasons are present … a CDS Client MAY augment the override reasons presented to the user with its own reasons.</t>
-  </si>
-  <si>
     <t>[When sending a card object,]  the link field [SHALL be sent as a] array of [link](https://cds-hooks.hl7.org/2.0/#link) [objects]</t>
   </si>
   <si>
@@ -1414,9 +1397,6 @@
     <t>[When sending a Source object,] the icon field is optional</t>
   </si>
   <si>
-    <t>[When sending a Source object,] the CDS Client may ignore or scale the image during display as appropriate for user experience.</t>
-  </si>
-  <si>
     <t>[When sending a Source object,] the topic field [SHALL be a] [Coding](https://cds-hooks.hl7.org/2.0/#coding) type object</t>
   </si>
   <si>
@@ -1450,9 +1430,6 @@
     <t xml:space="preserve">Within a suggestion, all actions … [SHALL use] AND [logic], such that a user selecting a suggestion selects all of the actions within it. </t>
   </si>
   <si>
-    <t>[When sending a Suggestion object,] When a suggestion contains multiple actions, the actions SHOULD be processed as per FHIR's rules for processing [transactions](https://hl7.org/fhir/http.html#trules) with the CDS Client's fhirServer as the base url for the inferred full URL of the transaction bundle entries. (Specifically, deletes happen first, then creates, then updates).</t>
-  </si>
-  <si>
     <t>When sending a Suggestion object and there are multiple actions</t>
   </si>
   <si>
@@ -1535,9 +1512,6 @@
   </si>
   <si>
     <t>When sending an Link object, link.type shall have either absolute or smart</t>
-  </si>
-  <si>
-    <t>[When sending a Link object and the link.type field is smart,] CDS Client should ensure the SMART app launch URL is populated with the appropriate SMART launch parameters.</t>
   </si>
   <si>
     <t>When sending a Link object and the link.type field is smart,</t>
@@ -2623,12 +2597,72 @@
   <si>
     <t>Interpretting this all as a SHOULD use this defined subset for prefetch templates, which are defined by the Service. Decided not to break it up since the whole list defines a subset.</t>
   </si>
+  <si>
+    <t>[When receiving a card object] the uuid field SHALL be included in any subsequent calls to the CDS service's feedback endpoint.</t>
+  </si>
+  <si>
+    <t>[When receiving a card object,] CDS Clients that do not understand the value [in the selectionBehavior field] MUST treat the card as an error.</t>
+  </si>
+  <si>
+    <t>[When receiving a card object,]  the source field [/ source object] should be the primary source of guidance for the decision support the card represents.</t>
+  </si>
+  <si>
+    <t>[When receiving a card object,]  if override reasons are present … the CDS Client SHOULD present these reasons to the clinician when they dismiss a card.</t>
+  </si>
+  <si>
+    <t>[When receiving a card object,]  if override reasons are present … a CDS Client MAY augment the override reasons presented to the user with its own reasons.</t>
+  </si>
+  <si>
+    <t>[When receiving a Source object,] the CDS Client may ignore or scale the image during display as appropriate for user experience.</t>
+  </si>
+  <si>
+    <t>[When receiving a Suggestion object,] When a suggestion contains multiple actions, the actions SHOULD be processed as per FHIR's rules for processing [transactions](https://hl7.org/fhir/http.html#trules) with the CDS Client's fhirServer as the base url for the inferred full URL of the transaction bundle entries. (Specifically, deletes happen first, then creates, then updates).</t>
+  </si>
+  <si>
+    <t>[When receiving a Link object and the link.type field is smart,] CDS Client should ensure the SMART app launch URL is populated with the appropriate SMART launch parameters.</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Prefetch</t>
+  </si>
+  <si>
+    <t>[When providing prefetched data, t]he CDS Client SHALL only provide access to resources that are within the user's authorized scope.</t>
+  </si>
+  <si>
+    <t>FHIR Resource Access</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>JWT Authentication</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>Access Token Passing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2766,8 +2800,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2822,8 +2863,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2982,12 +3029,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3082,6 +3144,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3100,7 +3165,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3473,14 +3538,14 @@
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>361</v>
+      <c r="A4" s="41" t="s">
+        <v>352</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="35"/>
       <c r="C5" s="30"/>
     </row>
@@ -3492,17 +3557,17 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -3525,13 +3590,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M219" sqref="M219"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3548,7 +3614,8 @@
     <col min="10" max="10" width="22" style="26" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="26" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" style="26" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="8"/>
+    <col min="13" max="13" width="10.83203125" style="8"/>
+    <col min="14" max="14" width="10.83203125" style="13"/>
     <col min="15" max="15" width="10.5" style="13" customWidth="1"/>
     <col min="16" max="16" width="42.5" style="8" customWidth="1"/>
     <col min="17" max="18" width="44.1640625" style="13" customWidth="1"/>
@@ -3573,7 +3640,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>53</v>
@@ -3599,7 +3666,7 @@
       <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="14" t="s">
@@ -3631,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
@@ -3641,7 +3708,9 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="N2" s="13" t="s">
+        <v>391</v>
+      </c>
       <c r="O2" s="13"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="13"/>
@@ -3666,7 +3735,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>392</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>102</v>
@@ -3696,7 +3768,10 @@
         <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>391</v>
       </c>
       <c r="R4" s="13" t="s">
         <v>103</v>
@@ -3709,7 +3784,7 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3725,6 +3800,7 @@
       <c r="E5" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="N5" s="8"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -3733,7 +3809,7 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3749,6 +3825,7 @@
       <c r="E6" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="N6" s="8"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -3757,7 +3834,7 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3773,6 +3850,7 @@
       <c r="E7" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="N7" s="8"/>
       <c r="W7" s="11"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="4"/>
@@ -3782,7 +3860,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:34" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3798,8 +3876,9 @@
       <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3815,8 +3894,9 @@
       <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3832,8 +3912,9 @@
       <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" ht="136" x14ac:dyDescent="0.2">
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:34" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3849,8 +3930,9 @@
       <c r="E11" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3866,8 +3948,9 @@
       <c r="E12" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" ht="119" x14ac:dyDescent="0.2">
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3883,8 +3966,9 @@
       <c r="E13" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3900,8 +3984,9 @@
       <c r="E14" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3917,6 +4002,7 @@
       <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -3934,8 +4020,11 @@
       <c r="E16" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="N16" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3951,8 +4040,9 @@
       <c r="E17" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3968,6 +4058,7 @@
       <c r="E18" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -3985,6 +4076,9 @@
       <c r="E19" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="N19" s="13" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -4002,6 +4096,9 @@
       <c r="E20" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="N20" s="13" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -4025,9 +4122,12 @@
       <c r="H21" s="13" t="s">
         <v>86</v>
       </c>
+      <c r="N21" s="13" t="s">
+        <v>391</v>
+      </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4043,6 +4143,7 @@
       <c r="E22" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -4060,8 +4161,11 @@
       <c r="E23" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+      <c r="N23" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4077,6 +4181,7 @@
       <c r="E24" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -4094,6 +4199,9 @@
       <c r="E25" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="N25" s="13" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -4111,8 +4219,11 @@
       <c r="E26" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N26" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4128,8 +4239,9 @@
       <c r="E27" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4145,8 +4257,9 @@
       <c r="E28" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4162,8 +4275,9 @@
       <c r="E29" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4171,7 +4285,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>20</v>
@@ -4185,6 +4299,7 @@
       <c r="H30" s="13" t="s">
         <v>94</v>
       </c>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -4194,7 +4309,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>20</v>
@@ -4207,6 +4322,9 @@
       </c>
       <c r="H31" s="13" t="s">
         <v>95</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="119" x14ac:dyDescent="0.2">
@@ -4231,8 +4349,11 @@
       <c r="H32" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N32" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4251,8 +4372,9 @@
       <c r="G33" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4260,7 +4382,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>49</v>
@@ -4271,11 +4393,12 @@
       <c r="G34" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N34" s="8"/>
       <c r="R34" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4297,8 +4420,9 @@
       <c r="H35" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4312,13 +4436,14 @@
         <v>45</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G36" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4337,8 +4462,9 @@
       <c r="G37" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4349,7 +4475,7 @@
         <v>108</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>76</v>
@@ -4357,8 +4483,9 @@
       <c r="G38" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4377,8 +4504,9 @@
       <c r="G39" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4397,8 +4525,9 @@
       <c r="G40" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="G41" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4437,6 +4567,7 @@
       <c r="G42" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
@@ -4446,7 +4577,7 @@
         <v>106</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
@@ -4457,8 +4588,11 @@
       <c r="G43" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="N43" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4466,7 +4600,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>45</v>
@@ -4477,8 +4611,9 @@
       <c r="G44" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4486,7 +4621,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>45</v>
@@ -4497,6 +4632,7 @@
       <c r="G45" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
@@ -4506,7 +4642,7 @@
         <v>106</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>20</v>
@@ -4516,6 +4652,9 @@
       </c>
       <c r="G46" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -4526,7 +4665,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>48</v>
@@ -4536,6 +4675,9 @@
       </c>
       <c r="G47" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -4546,7 +4688,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>20</v>
@@ -4557,8 +4699,11 @@
       <c r="G48" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="N48" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -4566,7 +4711,7 @@
         <v>106</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>45</v>
@@ -4577,6 +4722,7 @@
       <c r="G49" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -4586,7 +4732,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>48</v>
@@ -4597,8 +4743,11 @@
       <c r="G50" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N50" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -4606,7 +4755,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>43</v>
@@ -4618,8 +4767,9 @@
         <v>1</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>121</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -4629,7 +4779,7 @@
         <v>106</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>20</v>
@@ -4640,8 +4790,11 @@
       <c r="G52" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N52" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -4649,7 +4802,7 @@
         <v>106</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>43</v>
@@ -4660,6 +4813,7 @@
       <c r="G53" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N53" s="8"/>
     </row>
     <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -4669,7 +4823,7 @@
         <v>106</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>20</v>
@@ -4681,10 +4835,13 @@
         <v>1</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -4692,96 +4849,100 @@
         <v>106</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="1:18" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G56" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="1:18" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>43</v>
@@ -4789,42 +4950,44 @@
       <c r="E59" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="N59" s="8"/>
       <c r="R59" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>45</v>
@@ -4836,18 +4999,19 @@
         <v>1</v>
       </c>
       <c r="H61" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>20</v>
@@ -4858,8 +5022,9 @@
       <c r="G62" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N62" s="8"/>
       <c r="R62" s="13" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4867,10 +5032,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>20</v>
@@ -4880,6 +5045,9 @@
       </c>
       <c r="G63" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -4887,10 +5055,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>20</v>
@@ -4902,7 +5070,10 @@
         <v>1</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -4910,10 +5081,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>20</v>
@@ -4925,7 +5096,10 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4933,10 +5107,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>20</v>
@@ -4948,7 +5122,10 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -4956,10 +5133,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>20</v>
@@ -4971,7 +5148,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -4979,10 +5159,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>20</v>
@@ -4994,7 +5174,10 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -5002,10 +5185,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>20</v>
@@ -5017,7 +5200,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -5025,10 +5211,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>20</v>
@@ -5040,7 +5226,10 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -5048,10 +5237,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>20</v>
@@ -5063,21 +5252,24 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>76</v>
@@ -5086,18 +5278,21 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>43</v>
@@ -5108,19 +5303,20 @@
       <c r="G73" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N73" s="8"/>
       <c r="R73" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>43</v>
@@ -5132,41 +5328,43 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>20</v>
@@ -5178,15 +5376,16 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>74</v>
@@ -5201,18 +5400,19 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>43</v>
@@ -5224,18 +5424,19 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>43</v>
@@ -5247,18 +5448,19 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>164</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>20</v>
@@ -5270,41 +5472,45 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>45</v>
@@ -5316,18 +5522,19 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>45</v>
@@ -5339,41 +5546,43 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G84" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>45</v>
@@ -5385,41 +5594,43 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G86" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G86" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>45</v>
@@ -5431,113 +5642,118 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G90" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G90" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G91" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="N91" s="8"/>
       <c r="R91" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>43</v>
@@ -5549,41 +5765,43 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>20</v>
@@ -5595,18 +5813,19 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>45</v>
@@ -5618,64 +5837,67 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G96" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G96" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G97" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>20</v>
@@ -5687,41 +5909,45 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G99" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>45</v>
@@ -5733,18 +5959,19 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>20</v>
@@ -5756,18 +5983,19 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="N101" s="8"/>
+    </row>
+    <row r="102" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>43</v>
@@ -5779,18 +6007,19 @@
         <v>1</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="N102" s="8"/>
+    </row>
+    <row r="103" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>45</v>
@@ -5802,41 +6031,43 @@
         <v>1</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="N103" s="8"/>
+    </row>
+    <row r="104" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="N104" s="8"/>
+    </row>
+    <row r="105" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>45</v>
@@ -5848,19 +6079,20 @@
         <v>1</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="D106" s="6" t="s">
         <v>20</v>
       </c>
@@ -5871,18 +6103,19 @@
         <v>1</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N106" s="8"/>
+    </row>
+    <row r="107" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>45</v>
@@ -5894,18 +6127,19 @@
         <v>1</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="N107" s="8"/>
+    </row>
+    <row r="108" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>20</v>
@@ -5917,18 +6151,19 @@
         <v>1</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>45</v>
@@ -5940,18 +6175,19 @@
         <v>1</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N109" s="8"/>
+    </row>
+    <row r="110" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>47</v>
@@ -5963,18 +6199,19 @@
         <v>1</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>43</v>
@@ -5985,16 +6222,17 @@
       <c r="G111" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="N111" s="8"/>
+    </row>
+    <row r="112" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>20</v>
@@ -6006,18 +6244,19 @@
         <v>1</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N112" s="8"/>
+    </row>
+    <row r="113" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>43</v>
@@ -6029,23 +6268,24 @@
         <v>1</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I113" s="27"/>
       <c r="J113" s="27"/>
       <c r="K113" s="27"/>
       <c r="L113" s="27"/>
+      <c r="N113" s="8"/>
       <c r="O113" s="8"/>
     </row>
-    <row r="114" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>45</v>
@@ -6057,18 +6297,19 @@
         <v>1</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>45</v>
@@ -6080,18 +6321,19 @@
         <v>1</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N115" s="8"/>
+    </row>
+    <row r="116" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>20</v>
@@ -6103,18 +6345,19 @@
         <v>1</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N116" s="8"/>
+    </row>
+    <row r="117" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>45</v>
@@ -6126,18 +6369,19 @@
         <v>1</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="118" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>20</v>
@@ -6149,18 +6393,19 @@
         <v>1</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N118" s="8"/>
+    </row>
+    <row r="119" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>45</v>
@@ -6172,18 +6417,19 @@
         <v>1</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N119" s="8"/>
+    </row>
+    <row r="120" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>20</v>
@@ -6195,18 +6441,19 @@
         <v>1</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N120" s="8"/>
+    </row>
+    <row r="121" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>45</v>
@@ -6218,18 +6465,19 @@
         <v>1</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N121" s="8"/>
+    </row>
+    <row r="122" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>20</v>
@@ -6241,18 +6489,19 @@
         <v>1</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N122" s="8"/>
+    </row>
+    <row r="123" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>45</v>
@@ -6264,18 +6513,19 @@
         <v>1</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N123" s="8"/>
+    </row>
+    <row r="124" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>45</v>
@@ -6287,18 +6537,19 @@
         <v>1</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N124" s="8"/>
+    </row>
+    <row r="125" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>20</v>
@@ -6310,41 +6561,45 @@
         <v>1</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>201</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N125" s="8"/>
     </row>
     <row r="126" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G126" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="153" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>43</v>
@@ -6356,18 +6611,19 @@
         <v>1</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="N127" s="8"/>
+    </row>
+    <row r="128" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>20</v>
@@ -6379,18 +6635,19 @@
         <v>1</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="N128" s="8"/>
+    </row>
+    <row r="129" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>20</v>
@@ -6402,18 +6659,19 @@
         <v>1</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="N129" s="8"/>
+    </row>
+    <row r="130" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>45</v>
@@ -6425,41 +6683,43 @@
         <v>1</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="N130" s="8"/>
+    </row>
+    <row r="131" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G131" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G131" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="N131" s="8"/>
+    </row>
+    <row r="132" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>20</v>
@@ -6471,18 +6731,19 @@
         <v>1</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="N132" s="8"/>
+    </row>
+    <row r="133" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>20</v>
@@ -6494,18 +6755,19 @@
         <v>1</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="N133" s="8"/>
+    </row>
+    <row r="134" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>20</v>
@@ -6517,18 +6779,19 @@
         <v>1</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N134" s="8"/>
+    </row>
+    <row r="135" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>20</v>
@@ -6540,18 +6803,19 @@
         <v>1</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="N135" s="8"/>
+    </row>
+    <row r="136" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>20</v>
@@ -6563,18 +6827,19 @@
         <v>1</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="N136" s="8"/>
+    </row>
+    <row r="137" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>20</v>
@@ -6586,18 +6851,19 @@
         <v>1</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="N137" s="8"/>
+    </row>
+    <row r="138" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>45</v>
@@ -6608,16 +6874,17 @@
       <c r="G138" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="N138" s="8"/>
+    </row>
+    <row r="139" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>20</v>
@@ -6629,18 +6896,19 @@
         <v>1</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>20</v>
@@ -6652,18 +6920,19 @@
         <v>1</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N140" s="8"/>
+    </row>
+    <row r="141" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>45</v>
@@ -6675,18 +6944,19 @@
         <v>1</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>20</v>
@@ -6698,18 +6968,19 @@
         <v>1</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" spans="1:14" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>20</v>
@@ -6721,18 +6992,19 @@
         <v>1</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>43</v>
@@ -6744,18 +7016,19 @@
         <v>1</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>20</v>
@@ -6767,18 +7040,19 @@
         <v>1</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>45</v>
@@ -6790,18 +7064,19 @@
         <v>1</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>43</v>
@@ -6813,18 +7088,19 @@
         <v>1</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>48</v>
@@ -6836,21 +7112,22 @@
         <v>1</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>257</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N148" s="8"/>
       <c r="R148" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>45</v>
@@ -6861,16 +7138,17 @@
       <c r="G149" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>43</v>
@@ -6881,16 +7159,17 @@
       <c r="G150" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>43</v>
@@ -6901,16 +7180,17 @@
       <c r="G151" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N151" s="8"/>
     </row>
     <row r="152" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>20</v>
@@ -6920,6 +7200,9 @@
       </c>
       <c r="G152" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N152" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -6927,10 +7210,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>20</v>
@@ -6942,10 +7225,13 @@
         <v>1</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>371</v>
+        <v>362</v>
+      </c>
+      <c r="N153" s="13" t="s">
+        <v>397</v>
       </c>
       <c r="R153" s="13" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -6953,10 +7239,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>20</v>
@@ -6966,6 +7252,9 @@
       </c>
       <c r="G154" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N154" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -6973,10 +7262,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>20</v>
@@ -6986,6 +7275,9 @@
       </c>
       <c r="G155" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N155" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -6993,10 +7285,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>20</v>
@@ -7008,7 +7300,10 @@
         <v>1</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="N156" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -7016,10 +7311,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>20</v>
@@ -7031,7 +7326,10 @@
         <v>1</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="N157" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -7039,10 +7337,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>20</v>
@@ -7054,7 +7352,10 @@
         <v>1</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
+      </c>
+      <c r="N158" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7062,10 +7363,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>20</v>
@@ -7077,7 +7378,10 @@
         <v>1</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="N159" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -7085,10 +7389,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>20</v>
@@ -7100,18 +7404,21 @@
         <v>1</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="N160" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>45</v>
@@ -7123,18 +7430,19 @@
         <v>1</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="N161" s="8"/>
+    </row>
+    <row r="162" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>161</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>20</v>
@@ -7146,18 +7454,21 @@
         <v>1</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="N162" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>162</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>20</v>
@@ -7169,18 +7480,21 @@
         <v>1</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="N163" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>163</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>20</v>
@@ -7192,18 +7506,21 @@
         <v>1</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="N164" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>164</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>48</v>
@@ -7215,18 +7532,21 @@
         <v>1</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="N165" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>165</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>20</v>
@@ -7238,18 +7558,21 @@
         <v>1</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="N166" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>20</v>
@@ -7261,18 +7584,21 @@
         <v>1</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="N167" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>167</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>45</v>
@@ -7284,38 +7610,42 @@
         <v>1</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="N168" s="8"/>
+    </row>
+    <row r="169" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>168</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G169" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="N169" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>169</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>43</v>
@@ -7326,16 +7656,17 @@
       <c r="G170" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="N170" s="8"/>
+    </row>
+    <row r="171" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>170</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>43</v>
@@ -7346,16 +7677,17 @@
       <c r="G171" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="N171" s="8"/>
+    </row>
+    <row r="172" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>171</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>45</v>
@@ -7366,16 +7698,17 @@
       <c r="G172" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="N172" s="8"/>
+    </row>
+    <row r="173" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>172</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>20</v>
@@ -7386,16 +7719,19 @@
       <c r="G173" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="N173" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>173</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>20</v>
@@ -7406,16 +7742,19 @@
       <c r="G174" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="N174" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>20</v>
@@ -7427,18 +7766,21 @@
         <v>1</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="N175" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>175</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>45</v>
@@ -7449,16 +7791,17 @@
       <c r="G176" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="N176" s="8"/>
+    </row>
+    <row r="177" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>20</v>
@@ -7470,18 +7813,19 @@
         <v>1</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="N177" s="8"/>
+    </row>
+    <row r="178" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>43</v>
@@ -7492,16 +7836,17 @@
       <c r="G178" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="N178" s="8"/>
+    </row>
+    <row r="179" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>178</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>20</v>
@@ -7513,38 +7858,42 @@
         <v>1</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="N179" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>179</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G180" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="N180" s="8"/>
+    </row>
+    <row r="181" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>20</v>
@@ -7555,16 +7904,19 @@
       <c r="G181" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="N181" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>181</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>20</v>
@@ -7576,18 +7928,21 @@
         <v>1</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="N182" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>20</v>
@@ -7599,18 +7954,21 @@
         <v>1</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="N183" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>183</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>20</v>
@@ -7622,18 +7980,21 @@
         <v>1</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="N184" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>20</v>
@@ -7645,18 +8006,21 @@
         <v>1</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="N185" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>20</v>
@@ -7668,18 +8032,21 @@
         <v>1</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="N186" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>45</v>
@@ -7691,18 +8058,19 @@
         <v>1</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="N187" s="8"/>
+    </row>
+    <row r="188" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>20</v>
@@ -7714,18 +8082,21 @@
         <v>1</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="N188" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>188</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>45</v>
@@ -7737,18 +8108,19 @@
         <v>1</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="N189" s="8"/>
+    </row>
+    <row r="190" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>20</v>
@@ -7760,18 +8132,21 @@
         <v>1</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="N190" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>20</v>
@@ -7783,18 +8158,21 @@
         <v>1</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="N191" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>191</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>20</v>
@@ -7806,7 +8184,10 @@
         <v>1</v>
       </c>
       <c r="H192" s="13" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="N192" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -7814,10 +8195,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>20</v>
@@ -7829,7 +8210,10 @@
         <v>1</v>
       </c>
       <c r="H193" s="13" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="N193" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -7837,10 +8221,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>20</v>
@@ -7852,18 +8236,21 @@
         <v>1</v>
       </c>
       <c r="H194" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="N194" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>194</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>45</v>
@@ -7875,18 +8262,19 @@
         <v>1</v>
       </c>
       <c r="H195" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="N195" s="8"/>
+    </row>
+    <row r="196" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>43</v>
@@ -7897,16 +8285,17 @@
       <c r="G196" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N196" s="8"/>
+    </row>
+    <row r="197" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>20</v>
@@ -7916,6 +8305,9 @@
       </c>
       <c r="G197" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N197" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7923,10 +8315,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>20</v>
@@ -7937,16 +8329,19 @@
       <c r="G198" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="N198" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>45</v>
@@ -7957,59 +8352,64 @@
       <c r="G199" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N199" s="8"/>
     </row>
     <row r="200" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G200" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N200" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G201" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="N201" s="8"/>
+    </row>
+    <row r="202" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>48</v>
@@ -8020,8 +8420,9 @@
       <c r="G202" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N202" s="8"/>
       <c r="R202" s="13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8029,10 +8430,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>48</v>
@@ -8043,8 +8444,11 @@
       <c r="G203" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N203" s="13" t="s">
+        <v>400</v>
+      </c>
       <c r="R203" s="13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -8052,30 +8456,33 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G204" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="N204" s="47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>43</v>
@@ -8086,56 +8493,59 @@
       <c r="G205" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="N205" s="8"/>
+    </row>
+    <row r="206" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G206" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="N206" s="8"/>
+    </row>
+    <row r="207" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G207" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N207" s="8"/>
+    </row>
+    <row r="208" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>207</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>49</v>
@@ -8146,8 +8556,9 @@
       <c r="G208" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N208" s="8"/>
       <c r="R208" s="13" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="187" x14ac:dyDescent="0.2">
@@ -8155,33 +8566,36 @@
         <v>208</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G209" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="N209" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>209</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>43</v>
@@ -8193,18 +8607,19 @@
         <v>1</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="N210" s="8"/>
+    </row>
+    <row r="211" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>45</v>
@@ -8216,18 +8631,19 @@
         <v>1</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="N211" s="8"/>
+    </row>
+    <row r="212" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>20</v>
@@ -8239,18 +8655,19 @@
         <v>1</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="N212" s="8"/>
+    </row>
+    <row r="213" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>212</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>43</v>
@@ -8262,18 +8679,19 @@
         <v>1</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="N213" s="8"/>
+    </row>
+    <row r="214" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>20</v>
@@ -8285,10 +8703,11 @@
         <v>1</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="R214" s="46" t="s">
-        <v>375</v>
+        <v>330</v>
+      </c>
+      <c r="N214" s="8"/>
+      <c r="R214" s="40" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -8296,50 +8715,54 @@
         <v>214</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G215" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="N215" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G216" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="N216" s="8"/>
+    </row>
+    <row r="217" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>216</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>20</v>
@@ -8351,18 +8774,19 @@
         <v>1</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="N217" s="8"/>
+    </row>
+    <row r="218" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>20</v>
@@ -8374,18 +8798,19 @@
         <v>1</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="N218" s="8"/>
+    </row>
+    <row r="219" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>20</v>
@@ -8397,18 +8822,19 @@
         <v>1</v>
       </c>
       <c r="H219" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="N219" s="8"/>
+    </row>
+    <row r="220" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>20</v>
@@ -8420,18 +8846,19 @@
         <v>1</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="N220" s="8"/>
+    </row>
+    <row r="221" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>220</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>20</v>
@@ -8443,158 +8870,401 @@
         <v>1</v>
       </c>
       <c r="H221" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="N221" s="8"/>
+    </row>
+    <row r="222" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="9"/>
-    </row>
-    <row r="223" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="N222" s="8"/>
+    </row>
+    <row r="223" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="9"/>
-    </row>
-    <row r="224" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="N223" s="8"/>
+    </row>
+    <row r="224" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="9"/>
-    </row>
-    <row r="225" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N224" s="8"/>
+    </row>
+    <row r="225" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="9"/>
-    </row>
-    <row r="226" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N225" s="8"/>
+    </row>
+    <row r="226" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="9"/>
-    </row>
-    <row r="227" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N226" s="8"/>
+    </row>
+    <row r="227" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="9"/>
-    </row>
-    <row r="228" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N227" s="8"/>
+    </row>
+    <row r="228" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="9"/>
-    </row>
-    <row r="229" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N228" s="8"/>
+    </row>
+    <row r="229" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9"/>
-    </row>
-    <row r="230" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N229" s="8"/>
+    </row>
+    <row r="230" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="9"/>
-    </row>
-    <row r="231" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N230" s="8"/>
+    </row>
+    <row r="231" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="9"/>
-    </row>
-    <row r="232" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N231" s="8"/>
+    </row>
+    <row r="232" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="9"/>
-    </row>
-    <row r="233" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N232" s="8"/>
+    </row>
+    <row r="233" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="9"/>
-    </row>
-    <row r="234" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="241" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="244" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="245" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="247" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="N233" s="8"/>
+    </row>
+    <row r="234" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N234" s="8"/>
+    </row>
+    <row r="235" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N235" s="8"/>
+    </row>
+    <row r="236" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N236" s="8"/>
+    </row>
+    <row r="237" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N237" s="8"/>
+    </row>
+    <row r="238" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N238" s="8"/>
+    </row>
+    <row r="239" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N239" s="8"/>
+    </row>
+    <row r="240" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N240" s="8"/>
+    </row>
+    <row r="241" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N241" s="8"/>
+    </row>
+    <row r="242" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N242" s="8"/>
+    </row>
+    <row r="243" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N243" s="8"/>
+    </row>
+    <row r="244" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N244" s="8"/>
+    </row>
+    <row r="245" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N245" s="8"/>
+    </row>
+    <row r="246" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N246" s="8"/>
+    </row>
+    <row r="247" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N247" s="8"/>
+    </row>
+    <row r="248" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N248" s="8"/>
+    </row>
+    <row r="249" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N249" s="8"/>
+    </row>
+    <row r="250" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N250" s="8"/>
+    </row>
+    <row r="251" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N251" s="8"/>
+    </row>
+    <row r="252" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N252" s="8"/>
+    </row>
+    <row r="253" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N253" s="8"/>
+    </row>
+    <row r="254" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="9"/>
-    </row>
-    <row r="255" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="256" spans="2:2" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="16" x14ac:dyDescent="0.2"/>
+      <c r="N254" s="8"/>
+    </row>
+    <row r="255" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N255" s="8"/>
+    </row>
+    <row r="256" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N256" s="8"/>
+    </row>
+    <row r="257" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N257" s="8"/>
+    </row>
+    <row r="258" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N258" s="8"/>
+    </row>
+    <row r="259" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N259" s="8"/>
+    </row>
+    <row r="260" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N260" s="8"/>
+    </row>
+    <row r="261" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N261" s="8"/>
+    </row>
+    <row r="262" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N262" s="8"/>
+    </row>
+    <row r="263" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N263" s="8"/>
+    </row>
+    <row r="264" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N264" s="8"/>
+    </row>
+    <row r="265" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N265" s="8"/>
+    </row>
+    <row r="266" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N266" s="8"/>
+    </row>
+    <row r="267" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N267" s="8"/>
+    </row>
+    <row r="268" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N268" s="8"/>
+    </row>
+    <row r="269" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N269" s="8"/>
+    </row>
+    <row r="270" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N270" s="8"/>
+    </row>
+    <row r="271" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N271" s="8"/>
+    </row>
+    <row r="272" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N272" s="8"/>
+    </row>
+    <row r="273" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N273" s="8"/>
+    </row>
+    <row r="274" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N274" s="8"/>
+    </row>
+    <row r="275" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N275" s="8"/>
+    </row>
+    <row r="276" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N276" s="8"/>
+    </row>
+    <row r="277" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N277" s="8"/>
+    </row>
+    <row r="278" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N278" s="8"/>
+    </row>
+    <row r="279" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N279" s="8"/>
+    </row>
+    <row r="280" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N280" s="8"/>
+    </row>
+    <row r="281" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N281" s="8"/>
+    </row>
+    <row r="282" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N282" s="8"/>
+    </row>
+    <row r="283" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N283" s="8"/>
+    </row>
+    <row r="284" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N284" s="8"/>
+    </row>
+    <row r="285" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N285" s="8"/>
+    </row>
+    <row r="286" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N286" s="8"/>
+    </row>
+    <row r="287" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N287" s="8"/>
+    </row>
+    <row r="288" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N288" s="8"/>
+    </row>
+    <row r="289" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N289" s="8"/>
+    </row>
+    <row r="290" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N290" s="8"/>
+    </row>
+    <row r="291" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N291" s="8"/>
+    </row>
+    <row r="292" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N292" s="8"/>
+    </row>
+    <row r="293" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N293" s="8"/>
+    </row>
+    <row r="294" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N294" s="8"/>
+    </row>
+    <row r="295" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N295" s="8"/>
+    </row>
+    <row r="296" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N296" s="8"/>
+    </row>
+    <row r="297" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N297" s="8"/>
+    </row>
+    <row r="298" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N298" s="8"/>
+    </row>
+    <row r="299" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N299" s="8"/>
+    </row>
+    <row r="300" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N300" s="8"/>
+    </row>
+    <row r="301" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N301" s="8"/>
+    </row>
+    <row r="302" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N302" s="8"/>
+    </row>
+    <row r="303" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N303" s="8"/>
+    </row>
+    <row r="304" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N304" s="8"/>
+    </row>
+    <row r="305" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N305" s="8"/>
+    </row>
+    <row r="306" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N306" s="8"/>
+    </row>
+    <row r="307" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N307" s="8"/>
+    </row>
+    <row r="308" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N308" s="8"/>
+    </row>
+    <row r="309" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N309" s="8"/>
+    </row>
+    <row r="310" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N310" s="8"/>
+    </row>
+    <row r="311" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N311" s="8"/>
+    </row>
+    <row r="312" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N312" s="8"/>
+    </row>
+    <row r="313" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N313" s="8"/>
+    </row>
+    <row r="314" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N314" s="8"/>
+    </row>
+    <row r="315" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N315" s="8"/>
+    </row>
+    <row r="316" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N316" s="8"/>
+    </row>
+    <row r="317" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N317" s="8"/>
+    </row>
+    <row r="318" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N318" s="8"/>
+    </row>
+    <row r="319" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N319" s="8"/>
+    </row>
+    <row r="320" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N320" s="8"/>
+    </row>
+    <row r="321" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N321" s="8"/>
+    </row>
+    <row r="322" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N322" s="8"/>
+    </row>
+    <row r="323" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N323" s="8"/>
+    </row>
+    <row r="324" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N324" s="8"/>
+    </row>
+    <row r="325" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N325" s="8"/>
+    </row>
+    <row r="326" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N326" s="8"/>
+    </row>
+    <row r="327" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N327" s="8"/>
+    </row>
+    <row r="328" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N328" s="8"/>
+    </row>
+    <row r="329" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N329" s="8"/>
+    </row>
+    <row r="330" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N330" s="8"/>
+    </row>
+    <row r="331" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N331" s="8"/>
+    </row>
+    <row r="332" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N332" s="8"/>
+    </row>
+    <row r="333" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N333" s="8"/>
+    </row>
+    <row r="334" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N334" s="8"/>
+    </row>
+    <row r="335" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N335" s="8"/>
+    </row>
+    <row r="336" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N336" s="8"/>
+    </row>
+    <row r="337" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N337" s="8"/>
+    </row>
+    <row r="338" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N338" s="8"/>
+    </row>
+    <row r="339" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N339" s="8"/>
+    </row>
+    <row r="340" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N340" s="8"/>
+    </row>
+    <row r="341" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N341" s="8"/>
+    </row>
+    <row r="342" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N342" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AH342" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:AH342" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="SHALL"/>
+        <filter val="SHALL NOT"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Client"/>
+        <filter val="Client, Service"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="use-of-json" xr:uid="{69F88824-4DB6-D14A-AC96-19A8C1D71C9C}"/>
@@ -8837,7 +9507,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8847,14 +9517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -8882,7 +9552,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -8890,7 +9560,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8898,7 +9568,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8916,7 +9586,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -8924,7 +9594,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8932,20 +9602,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -9090,19 +9760,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -9356,7 +10013,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9365,25 +10022,20 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE547E3-BD0E-4C13-B5EC-CA56CC895052}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9403,10 +10055,28 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1346EC55-0CBC-9E40-88CD-13275AC26BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C45078-9C99-1D4E-9E67-09D6D4F7508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="2" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -1826,9 +1826,6 @@
     <t xml:space="preserve"> Copyright (c) 2024 The MITRE Corporation</t>
   </si>
   <si>
-    <t>CDS-hooks_2.0 Requiremetns</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
@@ -2656,6 +2653,9 @@
   </si>
   <si>
     <t>Access Token Passing</t>
+  </si>
+  <si>
+    <t>CDS Hooks</t>
   </si>
 </sst>
 </file>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -3593,8 +3593,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AH342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
@@ -3640,7 +3640,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>53</v>
@@ -3698,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
@@ -3709,7 +3709,7 @@
       <c r="L2" s="26"/>
       <c r="M2" s="8"/>
       <c r="N2" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="8"/>
@@ -3735,10 +3735,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>102</v>
@@ -3768,10 +3768,10 @@
         <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R4" s="13" t="s">
         <v>103</v>
@@ -4021,7 +4021,7 @@
         <v>76</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
         <v>76</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="136" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>76</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="170" x14ac:dyDescent="0.2">
@@ -4123,7 +4123,7 @@
         <v>86</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P21" s="13"/>
     </row>
@@ -4162,7 +4162,7 @@
         <v>76</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="136" hidden="1" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>76</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -4285,7 +4285,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>20</v>
@@ -4309,7 +4309,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>20</v>
@@ -4324,7 +4324,7 @@
         <v>95</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="119" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>97</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4382,7 +4382,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>49</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="N34" s="8"/>
       <c r="R34" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G36" s="6" t="b">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>106</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -4621,7 +4621,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>45</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="17" hidden="1" x14ac:dyDescent="0.2">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>124</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>20</v>
@@ -4942,7 +4942,7 @@
         <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>43</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="N59" s="8"/>
       <c r="R59" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4963,7 +4963,7 @@
         <v>133</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>20</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="N62" s="8"/>
       <c r="R62" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
         <v>141</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -5099,7 +5099,7 @@
         <v>143</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>147</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5177,7 +5177,7 @@
         <v>147</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
         <v>147</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -5229,7 +5229,7 @@
         <v>147</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>147</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
@@ -5281,7 +5281,7 @@
         <v>154</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
         <v>146</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>43</v>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="N73" s="8"/>
       <c r="R73" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -5364,7 +5364,7 @@
         <v>159</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>20</v>
@@ -5460,7 +5460,7 @@
         <v>164</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>20</v>
@@ -5475,7 +5475,7 @@
         <v>165</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="N91" s="8"/>
       <c r="R91" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>164</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>43</v>
@@ -5897,7 +5897,7 @@
         <v>164</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>20</v>
@@ -5912,7 +5912,7 @@
         <v>165</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -5995,7 +5995,7 @@
         <v>164</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>43</v>
@@ -6019,7 +6019,7 @@
         <v>164</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>45</v>
@@ -6309,7 +6309,7 @@
         <v>190</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>45</v>
@@ -6579,7 +6579,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G126" s="6" t="b">
         <v>1</v>
@@ -6588,7 +6588,7 @@
         <v>195</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>194</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>43</v>
@@ -7004,7 +7004,7 @@
         <v>235</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>43</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="N148" s="8"/>
       <c r="R148" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="N152" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7213,7 +7213,7 @@
         <v>249</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>20</v>
@@ -7225,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N153" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R153" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7242,7 +7242,7 @@
         <v>249</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>20</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="N154" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="N155" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>256</v>
       </c>
       <c r="N156" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -7329,7 +7329,7 @@
         <v>256</v>
       </c>
       <c r="N157" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -7355,7 +7355,7 @@
         <v>256</v>
       </c>
       <c r="N158" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7381,7 +7381,7 @@
         <v>259</v>
       </c>
       <c r="N159" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>261</v>
       </c>
       <c r="N160" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -7457,7 +7457,7 @@
         <v>261</v>
       </c>
       <c r="N162" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -7483,7 +7483,7 @@
         <v>266</v>
       </c>
       <c r="N163" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7509,7 +7509,7 @@
         <v>268</v>
       </c>
       <c r="N164" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>268</v>
       </c>
       <c r="N165" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -7561,7 +7561,7 @@
         <v>273</v>
       </c>
       <c r="N166" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -7587,7 +7587,7 @@
         <v>273</v>
       </c>
       <c r="N167" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -7628,13 +7628,13 @@
         <v>20</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N169" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="N173" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="N174" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -7769,7 +7769,7 @@
         <v>285</v>
       </c>
       <c r="N175" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -7861,7 +7861,7 @@
         <v>292</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -7878,7 +7878,7 @@
         <v>45</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G180" s="6" t="b">
         <v>0</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="N181" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -7931,7 +7931,7 @@
         <v>295</v>
       </c>
       <c r="N182" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -7957,7 +7957,7 @@
         <v>295</v>
       </c>
       <c r="N183" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7983,7 +7983,7 @@
         <v>295</v>
       </c>
       <c r="N184" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -8009,7 +8009,7 @@
         <v>295</v>
       </c>
       <c r="N185" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -8035,7 +8035,7 @@
         <v>295</v>
       </c>
       <c r="N186" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -8085,7 +8085,7 @@
         <v>296</v>
       </c>
       <c r="N188" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -8135,7 +8135,7 @@
         <v>296</v>
       </c>
       <c r="N190" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -8161,7 +8161,7 @@
         <v>296</v>
       </c>
       <c r="N191" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
         <v>287</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>20</v>
@@ -8187,7 +8187,7 @@
         <v>296</v>
       </c>
       <c r="N192" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8213,7 +8213,7 @@
         <v>296</v>
       </c>
       <c r="N193" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8239,7 +8239,7 @@
         <v>296</v>
       </c>
       <c r="N194" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="N197" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="N198" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
@@ -8368,7 +8368,7 @@
         <v>20</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G200" s="6" t="b">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>315</v>
       </c>
       <c r="N200" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
@@ -8394,7 +8394,7 @@
         <v>43</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G201" s="6" t="b">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>316</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>48</v>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="N202" s="8"/>
       <c r="R202" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8433,7 +8433,7 @@
         <v>316</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>48</v>
@@ -8445,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="N203" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R203" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -8465,13 +8465,13 @@
         <v>48</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N204" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -8509,7 +8509,7 @@
         <v>43</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G206" s="6" t="b">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>43</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G207" s="6" t="b">
         <v>0</v>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="N208" s="8"/>
       <c r="R208" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="187" x14ac:dyDescent="0.2">
@@ -8575,7 +8575,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G209" s="6" t="b">
         <v>1</v>
@@ -8584,7 +8584,7 @@
         <v>325</v>
       </c>
       <c r="N209" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="N214" s="8"/>
       <c r="R214" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -8724,13 +8724,13 @@
         <v>20</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G215" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N215" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -8741,13 +8741,13 @@
         <v>335</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G216" s="6" t="b">
         <v>0</v>
@@ -9506,8 +9506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9518,7 +9518,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="46"/>
     </row>
@@ -9552,7 +9552,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -9560,7 +9560,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9568,7 +9568,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9602,20 +9602,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C45078-9C99-1D4E-9E67-09D6D4F7508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DFB96F-B305-E54F-8E81-3EF6938F3DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="2" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="407">
   <si>
     <r>
       <rPr>
@@ -1704,12 +1704,6 @@
     <t>[When sending a JWT payload,] the exp field is required [and SHALL be a] number data type [containing the] expiration time integer for this authentication JWT, expressed in seconds since the "Epoch" (1970-01-01T00:00:00Z UTC).</t>
   </si>
   <si>
-    <t>[When sending a JWT payload,] the jti field is required [and SHALL be a] string data type[containing] a nonce string value that uniquely identifies this authentication JWT (used to protect against replay attacks)</t>
-  </si>
-  <si>
-    <t>[When sending a JWT payload,] the tenant field  [SHALL be a] string data type [containing] an opaque string identifying the healthcare organization that is invoking the CDS Hooks request</t>
-  </si>
-  <si>
     <t>[When sending a JWT payload,] the tenant field  is optional</t>
   </si>
   <si>
@@ -2656,6 +2650,24 @@
   </si>
   <si>
     <t>CDS Hooks</t>
+  </si>
+  <si>
+    <t>[When sending a JWT payload,] the jti field is required [and SHALL be a] string data type [containing] a nonce string value that uniquely identifies this authentication JWT (used to protect against replay attacks)</t>
+  </si>
+  <si>
+    <t>[When sending a JWT payload,] the tenant field is optional [SHALL be a] string data type [containing] an opaque string identifying the healthcare organization that is invoking the CDS Hooks request</t>
+  </si>
+  <si>
+    <t>Deprecated because this just explains why this field has to be unique and doesn't add any requirements.</t>
+  </si>
+  <si>
+    <t>Deprecated because this is an explanation of why the SMART on FHIR framework isn't used to obtain the access token, not an additional requirement</t>
+  </si>
+  <si>
+    <t>Will test only CDS-specified structures, not going deeper into sub-objects such as FHIR resources.</t>
+  </si>
+  <si>
+    <t>Deprecated because this is an explanation of an option, not the specific requirements around it which come later, e.g., in requirements 65 and 66.</t>
   </si>
 </sst>
 </file>
@@ -3539,7 +3551,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -3593,11 +3605,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AH342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3617,7 +3629,7 @@
     <col min="13" max="13" width="10.83203125" style="8"/>
     <col min="14" max="14" width="10.83203125" style="13"/>
     <col min="15" max="15" width="10.5" style="13" customWidth="1"/>
-    <col min="16" max="16" width="42.5" style="8" customWidth="1"/>
+    <col min="16" max="16" width="42.5" style="13" customWidth="1"/>
     <col min="17" max="18" width="44.1640625" style="13" customWidth="1"/>
     <col min="19" max="19" width="28.1640625" style="36" customWidth="1"/>
     <col min="20" max="20" width="11" style="5" customWidth="1"/>
@@ -3640,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>53</v>
@@ -3672,7 +3684,7 @@
       <c r="O1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="14" t="s">
@@ -3698,7 +3710,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
@@ -3709,10 +3721,10 @@
       <c r="L2" s="26"/>
       <c r="M2" s="8"/>
       <c r="N2" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O2" s="13"/>
-      <c r="P2" s="8"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13" t="s">
         <v>102</v>
@@ -3735,10 +3747,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>102</v>
@@ -3768,10 +3780,13 @@
         <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>405</v>
       </c>
       <c r="R4" s="13" t="s">
         <v>103</v>
@@ -3801,6 +3816,7 @@
         <v>61</v>
       </c>
       <c r="N5" s="8"/>
+      <c r="P5" s="8"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -3826,6 +3842,7 @@
         <v>61</v>
       </c>
       <c r="N6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -3851,6 +3868,7 @@
         <v>61</v>
       </c>
       <c r="N7" s="8"/>
+      <c r="P7" s="8"/>
       <c r="W7" s="11"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="4"/>
@@ -3877,6 +3895,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -3895,6 +3914,7 @@
         <v>61</v>
       </c>
       <c r="N9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -3913,6 +3933,7 @@
         <v>61</v>
       </c>
       <c r="N10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:34" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -3931,6 +3952,7 @@
         <v>61</v>
       </c>
       <c r="N11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -3949,6 +3971,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -3967,6 +3990,7 @@
         <v>61</v>
       </c>
       <c r="N13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -3985,6 +4009,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -4003,6 +4028,7 @@
         <v>61</v>
       </c>
       <c r="N15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -4021,10 +4047,10 @@
         <v>76</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4041,8 +4067,9 @@
         <v>61</v>
       </c>
       <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4060,7 +4087,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4077,10 +4104,10 @@
         <v>76</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4097,10 +4124,10 @@
         <v>76</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="170" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="170" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4123,11 +4150,10 @@
         <v>86</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16" ht="170" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="170" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4143,9 +4169,11 @@
       <c r="E22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="170" x14ac:dyDescent="0.2">
+      <c r="N22" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="170" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4162,10 +4190,10 @@
         <v>76</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="136" hidden="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4183,7 +4211,7 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4194,16 +4222,19 @@
         <v>89</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>76</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4220,10 +4251,10 @@
         <v>76</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4241,7 +4272,7 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4258,8 +4289,9 @@
         <v>61</v>
       </c>
       <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4276,8 +4308,9 @@
         <v>61</v>
       </c>
       <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4285,7 +4318,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>20</v>
@@ -4300,8 +4333,9 @@
         <v>94</v>
       </c>
       <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4309,7 +4343,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>20</v>
@@ -4324,10 +4358,10 @@
         <v>95</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4338,7 +4372,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>76</v>
@@ -4350,10 +4384,13 @@
         <v>97</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4374,7 +4411,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4382,7 +4419,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>49</v>
@@ -4395,7 +4432,7 @@
       </c>
       <c r="N34" s="8"/>
       <c r="R34" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4421,8 +4458,9 @@
         <v>105</v>
       </c>
       <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4436,7 +4474,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G36" s="6" t="b">
         <v>0</v>
@@ -4463,8 +4501,9 @@
         <v>0</v>
       </c>
       <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4485,7 +4524,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4506,7 +4545,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4527,7 +4566,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4548,7 +4587,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4577,7 +4616,7 @@
         <v>106</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>20</v>
@@ -4589,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4613,7 +4652,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4621,7 +4660,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>45</v>
@@ -4654,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -4677,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -4700,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -4744,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -4791,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
@@ -4814,6 +4853,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="8"/>
+      <c r="P53" s="8"/>
     </row>
     <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -4838,7 +4878,7 @@
         <v>124</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
@@ -4864,6 +4904,7 @@
         <v>126</v>
       </c>
       <c r="N55" s="8"/>
+      <c r="P55" s="8"/>
     </row>
     <row r="56" spans="1:18" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
@@ -4873,7 +4914,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>20</v>
@@ -4885,6 +4926,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="8"/>
+      <c r="P56" s="8"/>
     </row>
     <row r="57" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
@@ -4909,6 +4951,7 @@
         <v>129</v>
       </c>
       <c r="N57" s="8"/>
+      <c r="P57" s="8"/>
     </row>
     <row r="58" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
@@ -4933,6 +4976,7 @@
         <v>131</v>
       </c>
       <c r="N58" s="8"/>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:18" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
@@ -4942,7 +4986,7 @@
         <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>43</v>
@@ -4951,8 +4995,9 @@
         <v>61</v>
       </c>
       <c r="N59" s="8"/>
+      <c r="P59" s="8"/>
       <c r="R59" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4963,7 +5008,7 @@
         <v>133</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>20</v>
@@ -4978,6 +5023,7 @@
         <v>134</v>
       </c>
       <c r="N60" s="8"/>
+      <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
@@ -5002,6 +5048,7 @@
         <v>136</v>
       </c>
       <c r="N61" s="8"/>
+      <c r="P61" s="8"/>
     </row>
     <row r="62" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -5023,8 +5070,9 @@
         <v>0</v>
       </c>
       <c r="N62" s="8"/>
+      <c r="P62" s="8"/>
       <c r="R62" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5038,7 +5086,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>76</v>
@@ -5047,7 +5095,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -5073,7 +5124,7 @@
         <v>141</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -5099,7 +5150,7 @@
         <v>143</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5125,7 +5176,7 @@
         <v>145</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -5151,7 +5202,7 @@
         <v>147</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -5177,7 +5228,7 @@
         <v>147</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -5203,7 +5254,7 @@
         <v>147</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -5229,7 +5280,7 @@
         <v>147</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -5255,10 +5306,10 @@
         <v>147</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -5281,10 +5332,10 @@
         <v>154</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -5292,7 +5343,7 @@
         <v>146</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>43</v>
@@ -5305,10 +5356,10 @@
       </c>
       <c r="N73" s="8"/>
       <c r="R73" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -5355,6 +5406,7 @@
         <v>158</v>
       </c>
       <c r="N75" s="8"/>
+      <c r="P75" s="8"/>
     </row>
     <row r="76" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -5364,7 +5416,7 @@
         <v>159</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>20</v>
@@ -5379,6 +5431,7 @@
         <v>158</v>
       </c>
       <c r="N76" s="8"/>
+      <c r="P76" s="8"/>
     </row>
     <row r="77" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
@@ -5403,6 +5456,7 @@
         <v>160</v>
       </c>
       <c r="N77" s="8"/>
+      <c r="P77" s="8"/>
     </row>
     <row r="78" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
@@ -5427,6 +5481,7 @@
         <v>158</v>
       </c>
       <c r="N78" s="8"/>
+      <c r="P78" s="8"/>
     </row>
     <row r="79" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
@@ -5451,6 +5506,7 @@
         <v>163</v>
       </c>
       <c r="N79" s="8"/>
+      <c r="P79" s="8"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
@@ -5460,7 +5516,7 @@
         <v>164</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>20</v>
@@ -5475,7 +5531,7 @@
         <v>165</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -5501,6 +5557,7 @@
         <v>165</v>
       </c>
       <c r="N81" s="8"/>
+      <c r="P81" s="8"/>
     </row>
     <row r="82" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
@@ -5525,6 +5582,7 @@
         <v>165</v>
       </c>
       <c r="N82" s="8"/>
+      <c r="P82" s="8"/>
     </row>
     <row r="83" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -5549,6 +5607,7 @@
         <v>165</v>
       </c>
       <c r="N83" s="8"/>
+      <c r="P83" s="8"/>
     </row>
     <row r="84" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
@@ -5573,6 +5632,7 @@
         <v>165</v>
       </c>
       <c r="N84" s="8"/>
+      <c r="P84" s="8"/>
     </row>
     <row r="85" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
@@ -5597,6 +5657,7 @@
         <v>165</v>
       </c>
       <c r="N85" s="8"/>
+      <c r="P85" s="8"/>
     </row>
     <row r="86" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
@@ -5621,8 +5682,9 @@
         <v>165</v>
       </c>
       <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -5669,6 +5731,7 @@
         <v>165</v>
       </c>
       <c r="N88" s="8"/>
+      <c r="P88" s="8"/>
     </row>
     <row r="89" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
@@ -5693,6 +5756,7 @@
         <v>165</v>
       </c>
       <c r="N89" s="8"/>
+      <c r="P89" s="8"/>
     </row>
     <row r="90" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
@@ -5717,6 +5781,7 @@
         <v>165</v>
       </c>
       <c r="N90" s="8"/>
+      <c r="P90" s="8"/>
     </row>
     <row r="91" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
@@ -5741,11 +5806,12 @@
         <v>165</v>
       </c>
       <c r="N91" s="8"/>
+      <c r="P91" s="8"/>
       <c r="R91" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -5753,7 +5819,7 @@
         <v>164</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>43</v>
@@ -5792,6 +5858,7 @@
         <v>165</v>
       </c>
       <c r="N93" s="8"/>
+      <c r="P93" s="8"/>
     </row>
     <row r="94" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
@@ -5816,6 +5883,7 @@
         <v>180</v>
       </c>
       <c r="N94" s="8"/>
+      <c r="P94" s="8"/>
     </row>
     <row r="95" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
@@ -5840,6 +5908,7 @@
         <v>165</v>
       </c>
       <c r="N95" s="8"/>
+      <c r="P95" s="8"/>
     </row>
     <row r="96" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
@@ -5864,8 +5933,9 @@
         <v>165</v>
       </c>
       <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -5888,8 +5958,9 @@
         <v>165</v>
       </c>
       <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -5897,7 +5968,7 @@
         <v>164</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>20</v>
@@ -5912,10 +5983,10 @@
         <v>165</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -5938,8 +6009,9 @@
         <v>165</v>
       </c>
       <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -5962,8 +6034,9 @@
         <v>165</v>
       </c>
       <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -5986,8 +6059,9 @@
         <v>185</v>
       </c>
       <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -5995,7 +6069,7 @@
         <v>164</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>43</v>
@@ -6011,7 +6085,7 @@
       </c>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -6019,7 +6093,7 @@
         <v>164</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>45</v>
@@ -6035,7 +6109,7 @@
       </c>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -6058,8 +6132,9 @@
         <v>165</v>
       </c>
       <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -6082,8 +6157,9 @@
         <v>165</v>
       </c>
       <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P105" s="8"/>
+    </row>
+    <row r="106" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -6106,8 +6182,9 @@
         <v>191</v>
       </c>
       <c r="N106" s="8"/>
-    </row>
-    <row r="107" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -6130,8 +6207,9 @@
         <v>192</v>
       </c>
       <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -6154,8 +6232,9 @@
         <v>191</v>
       </c>
       <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -6178,8 +6257,9 @@
         <v>191</v>
       </c>
       <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -6202,8 +6282,9 @@
         <v>191</v>
       </c>
       <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -6223,8 +6304,9 @@
         <v>0</v>
       </c>
       <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -6247,8 +6329,9 @@
         <v>191</v>
       </c>
       <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -6276,8 +6359,9 @@
       <c r="L113" s="27"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
-    </row>
-    <row r="114" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -6300,8 +6384,9 @@
         <v>191</v>
       </c>
       <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P114" s="8"/>
+    </row>
+    <row r="115" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -6309,7 +6394,7 @@
         <v>190</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>45</v>
@@ -6325,7 +6410,7 @@
       </c>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -6348,8 +6433,9 @@
         <v>191</v>
       </c>
       <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P116" s="8"/>
+    </row>
+    <row r="117" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -6372,8 +6458,9 @@
         <v>191</v>
       </c>
       <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P117" s="8"/>
+    </row>
+    <row r="118" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -6396,8 +6483,9 @@
         <v>195</v>
       </c>
       <c r="N118" s="8"/>
-    </row>
-    <row r="119" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P118" s="8"/>
+    </row>
+    <row r="119" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -6420,8 +6508,9 @@
         <v>195</v>
       </c>
       <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P119" s="8"/>
+    </row>
+    <row r="120" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -6444,8 +6533,9 @@
         <v>195</v>
       </c>
       <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -6468,8 +6558,9 @@
         <v>195</v>
       </c>
       <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P121" s="8"/>
+    </row>
+    <row r="122" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -6492,8 +6583,9 @@
         <v>195</v>
       </c>
       <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="1:15" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P122" s="8"/>
+    </row>
+    <row r="123" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -6516,8 +6608,9 @@
         <v>195</v>
       </c>
       <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P123" s="8"/>
+    </row>
+    <row r="124" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -6540,8 +6633,9 @@
         <v>195</v>
       </c>
       <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -6564,8 +6658,9 @@
         <v>195</v>
       </c>
       <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="P125" s="8"/>
+    </row>
+    <row r="126" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -6579,7 +6674,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G126" s="6" t="b">
         <v>1</v>
@@ -6588,10 +6683,10 @@
         <v>195</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="153" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -6599,7 +6694,7 @@
         <v>194</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>43</v>
@@ -6615,7 +6710,7 @@
       </c>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="1:15" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -6638,8 +6733,9 @@
         <v>218</v>
       </c>
       <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P128" s="8"/>
+    </row>
+    <row r="129" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -6662,8 +6758,9 @@
         <v>218</v>
       </c>
       <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P129" s="8"/>
+    </row>
+    <row r="130" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -6686,8 +6783,9 @@
         <v>218</v>
       </c>
       <c r="N130" s="8"/>
-    </row>
-    <row r="131" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P130" s="8"/>
+    </row>
+    <row r="131" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -6710,8 +6808,9 @@
         <v>224</v>
       </c>
       <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P131" s="8"/>
+    </row>
+    <row r="132" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -6734,8 +6833,9 @@
         <v>222</v>
       </c>
       <c r="N132" s="8"/>
-    </row>
-    <row r="133" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P132" s="8"/>
+    </row>
+    <row r="133" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -6758,8 +6858,9 @@
         <v>226</v>
       </c>
       <c r="N133" s="8"/>
-    </row>
-    <row r="134" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P133" s="8"/>
+    </row>
+    <row r="134" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -6782,8 +6883,9 @@
         <v>229</v>
       </c>
       <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P134" s="8"/>
+    </row>
+    <row r="135" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -6806,8 +6908,9 @@
         <v>229</v>
       </c>
       <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P135" s="8"/>
+    </row>
+    <row r="136" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -6830,8 +6933,9 @@
         <v>218</v>
       </c>
       <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -6854,8 +6958,9 @@
         <v>232</v>
       </c>
       <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P137" s="8"/>
+    </row>
+    <row r="138" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -6876,7 +6981,7 @@
       </c>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -6899,8 +7004,9 @@
         <v>237</v>
       </c>
       <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P139" s="8"/>
+    </row>
+    <row r="140" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -6923,8 +7029,9 @@
         <v>237</v>
       </c>
       <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P140" s="8"/>
+    </row>
+    <row r="141" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -6947,8 +7054,9 @@
         <v>237</v>
       </c>
       <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P141" s="8"/>
+    </row>
+    <row r="142" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -6971,8 +7079,9 @@
         <v>237</v>
       </c>
       <c r="N142" s="8"/>
-    </row>
-    <row r="143" spans="1:14" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P142" s="8"/>
+    </row>
+    <row r="143" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -6995,8 +7104,9 @@
         <v>242</v>
       </c>
       <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -7004,7 +7114,7 @@
         <v>235</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>43</v>
@@ -7043,6 +7153,7 @@
         <v>237</v>
       </c>
       <c r="N145" s="8"/>
+      <c r="P145" s="8"/>
     </row>
     <row r="146" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
@@ -7067,6 +7178,7 @@
         <v>237</v>
       </c>
       <c r="N146" s="8"/>
+      <c r="P146" s="8"/>
     </row>
     <row r="147" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
@@ -7091,6 +7203,7 @@
         <v>237</v>
       </c>
       <c r="N147" s="8"/>
+      <c r="P147" s="8"/>
     </row>
     <row r="148" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
@@ -7115,8 +7228,9 @@
         <v>248</v>
       </c>
       <c r="N148" s="8"/>
+      <c r="P148" s="8"/>
       <c r="R148" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -7139,8 +7253,9 @@
         <v>0</v>
       </c>
       <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P149" s="8"/>
+    </row>
+    <row r="150" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -7161,7 +7276,7 @@
       </c>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -7202,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="N152" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7213,7 +7328,7 @@
         <v>249</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>20</v>
@@ -7225,13 +7340,13 @@
         <v>1</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N153" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R153" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7242,7 +7357,7 @@
         <v>249</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>20</v>
@@ -7254,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="N154" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7277,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="N155" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7303,7 +7418,7 @@
         <v>256</v>
       </c>
       <c r="N156" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -7329,7 +7444,7 @@
         <v>256</v>
       </c>
       <c r="N157" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -7355,7 +7470,7 @@
         <v>256</v>
       </c>
       <c r="N158" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -7381,7 +7496,7 @@
         <v>259</v>
       </c>
       <c r="N159" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -7407,10 +7522,10 @@
         <v>261</v>
       </c>
       <c r="N160" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -7434,7 +7549,7 @@
       </c>
       <c r="N161" s="8"/>
     </row>
-    <row r="162" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -7457,10 +7572,10 @@
         <v>261</v>
       </c>
       <c r="N162" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -7483,10 +7598,10 @@
         <v>266</v>
       </c>
       <c r="N163" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -7509,10 +7624,10 @@
         <v>268</v>
       </c>
       <c r="N164" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -7535,10 +7650,10 @@
         <v>268</v>
       </c>
       <c r="N165" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -7561,10 +7676,10 @@
         <v>273</v>
       </c>
       <c r="N166" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -7587,10 +7702,10 @@
         <v>273</v>
       </c>
       <c r="N167" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -7614,7 +7729,7 @@
       </c>
       <c r="N168" s="8"/>
     </row>
-    <row r="169" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -7628,16 +7743,16 @@
         <v>20</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N169" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -7658,7 +7773,7 @@
       </c>
       <c r="N170" s="8"/>
     </row>
-    <row r="171" spans="1:14" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -7679,7 +7794,7 @@
       </c>
       <c r="N171" s="8"/>
     </row>
-    <row r="172" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -7700,7 +7815,7 @@
       </c>
       <c r="N172" s="8"/>
     </row>
-    <row r="173" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -7720,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="N173" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -7743,10 +7858,10 @@
         <v>0</v>
       </c>
       <c r="N174" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -7769,10 +7884,10 @@
         <v>285</v>
       </c>
       <c r="N175" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -7792,8 +7907,9 @@
         <v>0</v>
       </c>
       <c r="N176" s="8"/>
-    </row>
-    <row r="177" spans="1:14" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P176" s="8"/>
+    </row>
+    <row r="177" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -7816,8 +7932,9 @@
         <v>290</v>
       </c>
       <c r="N177" s="8"/>
-    </row>
-    <row r="178" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P177" s="8"/>
+    </row>
+    <row r="178" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -7837,8 +7954,9 @@
         <v>0</v>
       </c>
       <c r="N178" s="8"/>
-    </row>
-    <row r="179" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P178" s="8"/>
+    </row>
+    <row r="179" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -7861,10 +7979,10 @@
         <v>292</v>
       </c>
       <c r="N179" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -7878,14 +7996,14 @@
         <v>45</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N180" s="8"/>
     </row>
-    <row r="181" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -7905,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="N181" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -7931,10 +8049,10 @@
         <v>295</v>
       </c>
       <c r="N182" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -7957,10 +8075,10 @@
         <v>295</v>
       </c>
       <c r="N183" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -7983,10 +8101,10 @@
         <v>295</v>
       </c>
       <c r="N184" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -8009,10 +8127,10 @@
         <v>295</v>
       </c>
       <c r="N185" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -8035,10 +8153,10 @@
         <v>295</v>
       </c>
       <c r="N186" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -8062,7 +8180,7 @@
       </c>
       <c r="N187" s="8"/>
     </row>
-    <row r="188" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -8085,10 +8203,10 @@
         <v>296</v>
       </c>
       <c r="N188" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -8112,7 +8230,7 @@
       </c>
       <c r="N189" s="8"/>
     </row>
-    <row r="190" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -8120,7 +8238,7 @@
         <v>287</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>20</v>
@@ -8135,10 +8253,10 @@
         <v>296</v>
       </c>
       <c r="N190" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -8161,10 +8279,10 @@
         <v>296</v>
       </c>
       <c r="N191" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -8172,7 +8290,7 @@
         <v>287</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>20</v>
@@ -8187,7 +8305,7 @@
         <v>296</v>
       </c>
       <c r="N192" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="193" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8198,7 +8316,7 @@
         <v>287</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>20</v>
@@ -8213,7 +8331,7 @@
         <v>296</v>
       </c>
       <c r="N193" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="194" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8224,10 +8342,10 @@
         <v>287</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>76</v>
@@ -8239,10 +8357,10 @@
         <v>296</v>
       </c>
       <c r="N194" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -8250,7 +8368,7 @@
         <v>287</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>45</v>
@@ -8274,7 +8392,7 @@
         <v>287</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>43</v>
@@ -8286,6 +8404,7 @@
         <v>0</v>
       </c>
       <c r="N196" s="8"/>
+      <c r="P196" s="8"/>
     </row>
     <row r="197" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
@@ -8295,7 +8414,7 @@
         <v>287</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>20</v>
@@ -8307,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="N197" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -8318,7 +8437,7 @@
         <v>287</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>20</v>
@@ -8330,10 +8449,10 @@
         <v>0</v>
       </c>
       <c r="N198" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -8341,7 +8460,7 @@
         <v>287</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>45</v>
@@ -8362,39 +8481,39 @@
         <v>287</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G200" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N200" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G201" s="6" t="b">
         <v>0</v>
@@ -8406,10 +8525,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>48</v>
@@ -8421,8 +8540,9 @@
         <v>0</v>
       </c>
       <c r="N202" s="8"/>
+      <c r="P202" s="8"/>
       <c r="R202" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -8430,10 +8550,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>48</v>
@@ -8445,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="N203" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="R203" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -8456,33 +8576,33 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C204" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N204" s="47" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>43</v>
@@ -8495,42 +8615,42 @@
       </c>
       <c r="N205" s="8"/>
     </row>
-    <row r="206" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G206" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N206" s="8"/>
     </row>
-    <row r="207" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G207" s="6" t="b">
         <v>0</v>
@@ -8542,10 +8662,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>49</v>
@@ -8557,8 +8677,9 @@
         <v>0</v>
       </c>
       <c r="N208" s="8"/>
+      <c r="P208" s="8"/>
       <c r="R208" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="187" x14ac:dyDescent="0.2">
@@ -8566,36 +8687,36 @@
         <v>208</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C209" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G209" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D209" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G209" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="13" t="s">
-        <v>325</v>
-      </c>
       <c r="N209" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>209</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>43</v>
@@ -8607,7 +8728,7 @@
         <v>1</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N210" s="8"/>
     </row>
@@ -8616,10 +8737,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>45</v>
@@ -8631,19 +8752,20 @@
         <v>1</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N211" s="8"/>
+      <c r="P211" s="8"/>
     </row>
     <row r="212" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>211</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>20</v>
@@ -8655,19 +8777,20 @@
         <v>1</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N212" s="8"/>
+      <c r="P212" s="8"/>
     </row>
     <row r="213" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>212</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>43</v>
@@ -8679,19 +8802,20 @@
         <v>1</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N213" s="8"/>
+      <c r="P213" s="8"/>
     </row>
     <row r="214" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>213</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>20</v>
@@ -8703,11 +8827,12 @@
         <v>1</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N214" s="8"/>
+      <c r="P214" s="8"/>
       <c r="R214" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -8715,39 +8840,39 @@
         <v>214</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G215" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N215" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G216" s="6" t="b">
         <v>0</v>
@@ -8759,82 +8884,85 @@
         <v>216</v>
       </c>
       <c r="B217" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G217" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G217" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="N217" s="8"/>
+      <c r="P217" s="8"/>
     </row>
     <row r="218" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G218" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G218" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="N218" s="8"/>
+      <c r="P218" s="8"/>
     </row>
     <row r="219" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G219" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G219" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="N219" s="8"/>
+      <c r="P219" s="8"/>
     </row>
     <row r="220" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>20</v>
@@ -8846,418 +8974,535 @@
         <v>1</v>
       </c>
       <c r="H220" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N220" s="8"/>
+      <c r="P220" s="8"/>
     </row>
     <row r="221" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>220</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C221" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G221" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D221" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G221" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="13" t="s">
-        <v>343</v>
-      </c>
       <c r="N221" s="8"/>
+      <c r="P221" s="8"/>
     </row>
     <row r="222" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="9"/>
       <c r="N222" s="8"/>
+      <c r="P222" s="8"/>
     </row>
     <row r="223" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="9"/>
       <c r="N223" s="8"/>
+      <c r="P223" s="8"/>
     </row>
     <row r="224" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="9"/>
       <c r="N224" s="8"/>
-    </row>
-    <row r="225" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P224" s="8"/>
+    </row>
+    <row r="225" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="9"/>
       <c r="N225" s="8"/>
-    </row>
-    <row r="226" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P225" s="8"/>
+    </row>
+    <row r="226" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="9"/>
       <c r="N226" s="8"/>
-    </row>
-    <row r="227" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P226" s="8"/>
+    </row>
+    <row r="227" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="9"/>
       <c r="N227" s="8"/>
-    </row>
-    <row r="228" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P227" s="8"/>
+    </row>
+    <row r="228" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="9"/>
       <c r="N228" s="8"/>
-    </row>
-    <row r="229" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P228" s="8"/>
+    </row>
+    <row r="229" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9"/>
       <c r="N229" s="8"/>
-    </row>
-    <row r="230" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P229" s="8"/>
+    </row>
+    <row r="230" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="9"/>
       <c r="N230" s="8"/>
-    </row>
-    <row r="231" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P230" s="8"/>
+    </row>
+    <row r="231" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="9"/>
       <c r="N231" s="8"/>
-    </row>
-    <row r="232" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P231" s="8"/>
+    </row>
+    <row r="232" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="9"/>
       <c r="N232" s="8"/>
-    </row>
-    <row r="233" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P232" s="8"/>
+    </row>
+    <row r="233" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="9"/>
       <c r="N233" s="8"/>
-    </row>
-    <row r="234" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P233" s="8"/>
+    </row>
+    <row r="234" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N234" s="8"/>
-    </row>
-    <row r="235" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P234" s="8"/>
+    </row>
+    <row r="235" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N235" s="8"/>
-    </row>
-    <row r="236" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P235" s="8"/>
+    </row>
+    <row r="236" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N236" s="8"/>
-    </row>
-    <row r="237" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P236" s="8"/>
+    </row>
+    <row r="237" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N237" s="8"/>
-    </row>
-    <row r="238" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P237" s="8"/>
+    </row>
+    <row r="238" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N238" s="8"/>
-    </row>
-    <row r="239" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P238" s="8"/>
+    </row>
+    <row r="239" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N239" s="8"/>
-    </row>
-    <row r="240" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P239" s="8"/>
+    </row>
+    <row r="240" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N240" s="8"/>
-    </row>
-    <row r="241" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P240" s="8"/>
+    </row>
+    <row r="241" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N241" s="8"/>
-    </row>
-    <row r="242" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P241" s="8"/>
+    </row>
+    <row r="242" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N242" s="8"/>
-    </row>
-    <row r="243" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P242" s="8"/>
+    </row>
+    <row r="243" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N243" s="8"/>
-    </row>
-    <row r="244" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P243" s="8"/>
+    </row>
+    <row r="244" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N244" s="8"/>
-    </row>
-    <row r="245" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P244" s="8"/>
+    </row>
+    <row r="245" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N245" s="8"/>
-    </row>
-    <row r="246" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P245" s="8"/>
+    </row>
+    <row r="246" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N246" s="8"/>
-    </row>
-    <row r="247" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P246" s="8"/>
+    </row>
+    <row r="247" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N247" s="8"/>
-    </row>
-    <row r="248" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P247" s="8"/>
+    </row>
+    <row r="248" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N248" s="8"/>
-    </row>
-    <row r="249" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P248" s="8"/>
+    </row>
+    <row r="249" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N249" s="8"/>
-    </row>
-    <row r="250" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P249" s="8"/>
+    </row>
+    <row r="250" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N250" s="8"/>
-    </row>
-    <row r="251" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P250" s="8"/>
+    </row>
+    <row r="251" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N251" s="8"/>
-    </row>
-    <row r="252" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P251" s="8"/>
+    </row>
+    <row r="252" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N252" s="8"/>
-    </row>
-    <row r="253" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P252" s="8"/>
+    </row>
+    <row r="253" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N253" s="8"/>
-    </row>
-    <row r="254" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P253" s="8"/>
+    </row>
+    <row r="254" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="9"/>
       <c r="N254" s="8"/>
-    </row>
-    <row r="255" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P254" s="8"/>
+    </row>
+    <row r="255" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N255" s="8"/>
-    </row>
-    <row r="256" spans="2:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P255" s="8"/>
+    </row>
+    <row r="256" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N256" s="8"/>
-    </row>
-    <row r="257" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P256" s="8"/>
+    </row>
+    <row r="257" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N257" s="8"/>
-    </row>
-    <row r="258" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P257" s="8"/>
+    </row>
+    <row r="258" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N258" s="8"/>
-    </row>
-    <row r="259" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P258" s="8"/>
+    </row>
+    <row r="259" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N259" s="8"/>
-    </row>
-    <row r="260" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P259" s="8"/>
+    </row>
+    <row r="260" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N260" s="8"/>
-    </row>
-    <row r="261" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P260" s="8"/>
+    </row>
+    <row r="261" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N261" s="8"/>
-    </row>
-    <row r="262" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P261" s="8"/>
+    </row>
+    <row r="262" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N262" s="8"/>
-    </row>
-    <row r="263" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P262" s="8"/>
+    </row>
+    <row r="263" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N263" s="8"/>
-    </row>
-    <row r="264" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P263" s="8"/>
+    </row>
+    <row r="264" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N264" s="8"/>
-    </row>
-    <row r="265" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P264" s="8"/>
+    </row>
+    <row r="265" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N265" s="8"/>
-    </row>
-    <row r="266" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P265" s="8"/>
+    </row>
+    <row r="266" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N266" s="8"/>
-    </row>
-    <row r="267" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P266" s="8"/>
+    </row>
+    <row r="267" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N267" s="8"/>
-    </row>
-    <row r="268" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P267" s="8"/>
+    </row>
+    <row r="268" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N268" s="8"/>
-    </row>
-    <row r="269" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P268" s="8"/>
+    </row>
+    <row r="269" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N269" s="8"/>
-    </row>
-    <row r="270" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P269" s="8"/>
+    </row>
+    <row r="270" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N270" s="8"/>
-    </row>
-    <row r="271" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P270" s="8"/>
+    </row>
+    <row r="271" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N271" s="8"/>
-    </row>
-    <row r="272" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P271" s="8"/>
+    </row>
+    <row r="272" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N272" s="8"/>
-    </row>
-    <row r="273" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P272" s="8"/>
+    </row>
+    <row r="273" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N273" s="8"/>
-    </row>
-    <row r="274" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P273" s="8"/>
+    </row>
+    <row r="274" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N274" s="8"/>
-    </row>
-    <row r="275" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P274" s="8"/>
+    </row>
+    <row r="275" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N275" s="8"/>
-    </row>
-    <row r="276" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P275" s="8"/>
+    </row>
+    <row r="276" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N276" s="8"/>
-    </row>
-    <row r="277" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P276" s="8"/>
+    </row>
+    <row r="277" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N277" s="8"/>
-    </row>
-    <row r="278" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P277" s="8"/>
+    </row>
+    <row r="278" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N278" s="8"/>
-    </row>
-    <row r="279" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P278" s="8"/>
+    </row>
+    <row r="279" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N279" s="8"/>
-    </row>
-    <row r="280" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P279" s="8"/>
+    </row>
+    <row r="280" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N280" s="8"/>
-    </row>
-    <row r="281" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P280" s="8"/>
+    </row>
+    <row r="281" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N281" s="8"/>
-    </row>
-    <row r="282" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P281" s="8"/>
+    </row>
+    <row r="282" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N282" s="8"/>
-    </row>
-    <row r="283" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P282" s="8"/>
+    </row>
+    <row r="283" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N283" s="8"/>
-    </row>
-    <row r="284" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P283" s="8"/>
+    </row>
+    <row r="284" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N284" s="8"/>
-    </row>
-    <row r="285" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P284" s="8"/>
+    </row>
+    <row r="285" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N285" s="8"/>
-    </row>
-    <row r="286" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P285" s="8"/>
+    </row>
+    <row r="286" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N286" s="8"/>
-    </row>
-    <row r="287" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P286" s="8"/>
+    </row>
+    <row r="287" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N287" s="8"/>
-    </row>
-    <row r="288" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P287" s="8"/>
+    </row>
+    <row r="288" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N288" s="8"/>
-    </row>
-    <row r="289" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P288" s="8"/>
+    </row>
+    <row r="289" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N289" s="8"/>
-    </row>
-    <row r="290" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P289" s="8"/>
+    </row>
+    <row r="290" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N290" s="8"/>
-    </row>
-    <row r="291" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P290" s="8"/>
+    </row>
+    <row r="291" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N291" s="8"/>
-    </row>
-    <row r="292" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P291" s="8"/>
+    </row>
+    <row r="292" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N292" s="8"/>
-    </row>
-    <row r="293" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P292" s="8"/>
+    </row>
+    <row r="293" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N293" s="8"/>
-    </row>
-    <row r="294" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P293" s="8"/>
+    </row>
+    <row r="294" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N294" s="8"/>
-    </row>
-    <row r="295" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P294" s="8"/>
+    </row>
+    <row r="295" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N295" s="8"/>
-    </row>
-    <row r="296" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P295" s="8"/>
+    </row>
+    <row r="296" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N296" s="8"/>
-    </row>
-    <row r="297" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P296" s="8"/>
+    </row>
+    <row r="297" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N297" s="8"/>
-    </row>
-    <row r="298" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P297" s="8"/>
+    </row>
+    <row r="298" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N298" s="8"/>
-    </row>
-    <row r="299" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P298" s="8"/>
+    </row>
+    <row r="299" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N299" s="8"/>
-    </row>
-    <row r="300" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P299" s="8"/>
+    </row>
+    <row r="300" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N300" s="8"/>
-    </row>
-    <row r="301" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P300" s="8"/>
+    </row>
+    <row r="301" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N301" s="8"/>
-    </row>
-    <row r="302" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P301" s="8"/>
+    </row>
+    <row r="302" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N302" s="8"/>
-    </row>
-    <row r="303" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P302" s="8"/>
+    </row>
+    <row r="303" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N303" s="8"/>
-    </row>
-    <row r="304" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P303" s="8"/>
+    </row>
+    <row r="304" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N304" s="8"/>
-    </row>
-    <row r="305" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P304" s="8"/>
+    </row>
+    <row r="305" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N305" s="8"/>
-    </row>
-    <row r="306" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P305" s="8"/>
+    </row>
+    <row r="306" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N306" s="8"/>
-    </row>
-    <row r="307" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P306" s="8"/>
+    </row>
+    <row r="307" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N307" s="8"/>
-    </row>
-    <row r="308" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P307" s="8"/>
+    </row>
+    <row r="308" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N308" s="8"/>
-    </row>
-    <row r="309" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P308" s="8"/>
+    </row>
+    <row r="309" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N309" s="8"/>
-    </row>
-    <row r="310" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P309" s="8"/>
+    </row>
+    <row r="310" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N310" s="8"/>
-    </row>
-    <row r="311" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P310" s="8"/>
+    </row>
+    <row r="311" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N311" s="8"/>
-    </row>
-    <row r="312" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P311" s="8"/>
+    </row>
+    <row r="312" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N312" s="8"/>
-    </row>
-    <row r="313" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P312" s="8"/>
+    </row>
+    <row r="313" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N313" s="8"/>
-    </row>
-    <row r="314" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P313" s="8"/>
+    </row>
+    <row r="314" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N314" s="8"/>
-    </row>
-    <row r="315" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P314" s="8"/>
+    </row>
+    <row r="315" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N315" s="8"/>
-    </row>
-    <row r="316" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P315" s="8"/>
+    </row>
+    <row r="316" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N316" s="8"/>
-    </row>
-    <row r="317" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P316" s="8"/>
+    </row>
+    <row r="317" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N317" s="8"/>
-    </row>
-    <row r="318" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P317" s="8"/>
+    </row>
+    <row r="318" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N318" s="8"/>
-    </row>
-    <row r="319" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P318" s="8"/>
+    </row>
+    <row r="319" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N319" s="8"/>
-    </row>
-    <row r="320" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P319" s="8"/>
+    </row>
+    <row r="320" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N320" s="8"/>
-    </row>
-    <row r="321" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P320" s="8"/>
+    </row>
+    <row r="321" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N321" s="8"/>
-    </row>
-    <row r="322" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P321" s="8"/>
+    </row>
+    <row r="322" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N322" s="8"/>
-    </row>
-    <row r="323" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P322" s="8"/>
+    </row>
+    <row r="323" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N323" s="8"/>
-    </row>
-    <row r="324" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P323" s="8"/>
+    </row>
+    <row r="324" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N324" s="8"/>
-    </row>
-    <row r="325" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P324" s="8"/>
+    </row>
+    <row r="325" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N325" s="8"/>
-    </row>
-    <row r="326" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P325" s="8"/>
+    </row>
+    <row r="326" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N326" s="8"/>
-    </row>
-    <row r="327" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P326" s="8"/>
+    </row>
+    <row r="327" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N327" s="8"/>
-    </row>
-    <row r="328" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P327" s="8"/>
+    </row>
+    <row r="328" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N328" s="8"/>
-    </row>
-    <row r="329" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P328" s="8"/>
+    </row>
+    <row r="329" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N329" s="8"/>
-    </row>
-    <row r="330" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P329" s="8"/>
+    </row>
+    <row r="330" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N330" s="8"/>
-    </row>
-    <row r="331" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P330" s="8"/>
+    </row>
+    <row r="331" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N331" s="8"/>
-    </row>
-    <row r="332" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P331" s="8"/>
+    </row>
+    <row r="332" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N332" s="8"/>
-    </row>
-    <row r="333" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P332" s="8"/>
+    </row>
+    <row r="333" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N333" s="8"/>
-    </row>
-    <row r="334" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P333" s="8"/>
+    </row>
+    <row r="334" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N334" s="8"/>
-    </row>
-    <row r="335" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P334" s="8"/>
+    </row>
+    <row r="335" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N335" s="8"/>
-    </row>
-    <row r="336" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P335" s="8"/>
+    </row>
+    <row r="336" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N336" s="8"/>
-    </row>
-    <row r="337" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P336" s="8"/>
+    </row>
+    <row r="337" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N337" s="8"/>
-    </row>
-    <row r="338" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P337" s="8"/>
+    </row>
+    <row r="338" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N338" s="8"/>
-    </row>
-    <row r="339" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P338" s="8"/>
+    </row>
+    <row r="339" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N339" s="8"/>
-    </row>
-    <row r="340" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P339" s="8"/>
+    </row>
+    <row r="340" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N340" s="8"/>
-    </row>
-    <row r="341" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P340" s="8"/>
+    </row>
+    <row r="341" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N341" s="8"/>
-    </row>
-    <row r="342" spans="14:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P341" s="8"/>
+    </row>
+    <row r="342" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="N342" s="8"/>
+      <c r="P342" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AH342" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SHALL"/>
-        <filter val="SHALL NOT"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="Client"/>
@@ -9506,7 +9751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9518,7 +9763,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B1" s="46"/>
     </row>
@@ -9552,7 +9797,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -9560,7 +9805,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9568,7 +9813,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9586,7 +9831,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -9594,7 +9839,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9602,20 +9847,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
+++ b/lib/davinci_crd_test_kit/requirements/cds-hooks_2.0_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlnaden/GlenViewAssociates/Inferno/source/davinci-crd-test-kit/lib/davinci_crd_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DFB96F-B305-E54F-8E81-3EF6938F3DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B116F7-0D3B-F542-BF04-D2D8CC228793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="260" yWindow="4440" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,6 @@
     <definedName name="STRREV">_xlfn.LAMBDA(_xlpm.word, _xlfn.CONCAT(MID(_xlpm.word,_xlfn.SEQUENCE(LEN(_xlpm.word),,LEN(_xlpm.word),-1),1)))</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3159,6 +3158,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3176,9 +3178,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3550,14 +3549,14 @@
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="35"/>
       <c r="C5" s="30"/>
     </row>
@@ -3569,17 +3568,17 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -3602,14 +3601,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3799,7 +3797,7 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3825,7 +3823,7 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3851,7 +3849,7 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3878,7 +3876,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3897,7 +3895,7 @@
       <c r="N8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3916,7 +3914,7 @@
       <c r="N9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3935,7 +3933,7 @@
       <c r="N10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:34" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3954,7 +3952,7 @@
       <c r="N11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3973,7 +3971,7 @@
       <c r="N12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3992,7 +3990,7 @@
       <c r="N13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4011,7 +4009,7 @@
       <c r="N14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4272,7 +4270,7 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4291,7 +4289,7 @@
       <c r="N28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4310,7 +4308,7 @@
       <c r="N29" s="8"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4435,7 +4433,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4481,7 +4479,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -4881,7 +4879,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -4906,7 +4904,7 @@
       <c r="N55" s="8"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:18" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -4928,7 +4926,7 @@
       <c r="N56" s="8"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -4953,7 +4951,7 @@
       <c r="N57" s="8"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -4978,7 +4976,7 @@
       <c r="N58" s="8"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:18" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -5000,7 +4998,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -5025,7 +5023,7 @@
       <c r="N60" s="8"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -5050,7 +5048,7 @@
       <c r="N61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -5383,7 +5381,7 @@
       </c>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -5408,7 +5406,7 @@
       <c r="N75" s="8"/>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -5433,7 +5431,7 @@
       <c r="N76" s="8"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -5458,7 +5456,7 @@
       <c r="N77" s="8"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -5483,7 +5481,7 @@
       <c r="N78" s="8"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -5534,7 +5532,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -5559,7 +5557,7 @@
       <c r="N81" s="8"/>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -5584,7 +5582,7 @@
       <c r="N82" s="8"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -5609,7 +5607,7 @@
       <c r="N83" s="8"/>
       <c r="P83" s="8"/>
     </row>
-    <row r="84" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -5634,7 +5632,7 @@
       <c r="N84" s="8"/>
       <c r="P84" s="8"/>
     </row>
-    <row r="85" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -5659,7 +5657,7 @@
       <c r="N85" s="8"/>
       <c r="P85" s="8"/>
     </row>
-    <row r="86" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -5708,7 +5706,7 @@
       </c>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -5733,7 +5731,7 @@
       <c r="N88" s="8"/>
       <c r="P88" s="8"/>
     </row>
-    <row r="89" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -5758,7 +5756,7 @@
       <c r="N89" s="8"/>
       <c r="P89" s="8"/>
     </row>
-    <row r="90" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -5783,7 +5781,7 @@
       <c r="N90" s="8"/>
       <c r="P90" s="8"/>
     </row>
-    <row r="91" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -5835,7 +5833,7 @@
       </c>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:18" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -5860,7 +5858,7 @@
       <c r="N93" s="8"/>
       <c r="P93" s="8"/>
     </row>
-    <row r="94" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -5885,7 +5883,7 @@
       <c r="N94" s="8"/>
       <c r="P94" s="8"/>
     </row>
-    <row r="95" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -5910,7 +5908,7 @@
       <c r="N95" s="8"/>
       <c r="P95" s="8"/>
     </row>
-    <row r="96" spans="1:18" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -5935,7 +5933,7 @@
       <c r="N96" s="8"/>
       <c r="P96" s="8"/>
     </row>
-    <row r="97" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -6011,7 +6009,7 @@
       <c r="N99" s="8"/>
       <c r="P99" s="8"/>
     </row>
-    <row r="100" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -6036,7 +6034,7 @@
       <c r="N100" s="8"/>
       <c r="P100" s="8"/>
     </row>
-    <row r="101" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -6109,7 +6107,7 @@
       </c>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -6134,7 +6132,7 @@
       <c r="N104" s="8"/>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -6159,7 +6157,7 @@
       <c r="N105" s="8"/>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -6184,7 +6182,7 @@
       <c r="N106" s="8"/>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -6209,7 +6207,7 @@
       <c r="N107" s="8"/>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -6234,7 +6232,7 @@
       <c r="N108" s="8"/>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -6259,7 +6257,7 @@
       <c r="N109" s="8"/>
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -6284,7 +6282,7 @@
       <c r="N110" s="8"/>
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -6306,7 +6304,7 @@
       <c r="N111" s="8"/>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -6331,7 +6329,7 @@
       <c r="N112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -6361,7 +6359,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -6410,7 +6408,7 @@
       </c>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -6435,7 +6433,7 @@
       <c r="N116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -6460,7 +6458,7 @@
       <c r="N117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -6485,7 +6483,7 @@
       <c r="N118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -6510,7 +6508,7 @@
       <c r="N119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -6535,7 +6533,7 @@
       <c r="N120" s="8"/>
       <c r="P120" s="8"/>
     </row>
-    <row r="121" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -6560,7 +6558,7 @@
       <c r="N121" s="8"/>
       <c r="P121" s="8"/>
     </row>
-    <row r="122" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -6585,7 +6583,7 @@
       <c r="N122" s="8"/>
       <c r="P122" s="8"/>
     </row>
-    <row r="123" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -6610,7 +6608,7 @@
       <c r="N123" s="8"/>
       <c r="P123" s="8"/>
     </row>
-    <row r="124" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -6635,7 +6633,7 @@
       <c r="N124" s="8"/>
       <c r="P124" s="8"/>
     </row>
-    <row r="125" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -6710,7 +6708,7 @@
       </c>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -6735,7 +6733,7 @@
       <c r="N128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -6760,7 +6758,7 @@
       <c r="N129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -6785,7 +6783,7 @@
       <c r="N130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -6810,7 +6808,7 @@
       <c r="N131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -6835,7 +6833,7 @@
       <c r="N132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -6860,7 +6858,7 @@
       <c r="N133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -6885,7 +6883,7 @@
       <c r="N134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -6910,7 +6908,7 @@
       <c r="N135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -6935,7 +6933,7 @@
       <c r="N136" s="8"/>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -6981,7 +6979,7 @@
       </c>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -7006,7 +7004,7 @@
       <c r="N139" s="8"/>
       <c r="P139" s="8"/>
     </row>
-    <row r="140" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -7031,7 +7029,7 @@
       <c r="N140" s="8"/>
       <c r="P140" s="8"/>
     </row>
-    <row r="141" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -7056,7 +7054,7 @@
       <c r="N141" s="8"/>
       <c r="P141" s="8"/>
     </row>
-    <row r="142" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -7081,7 +7079,7 @@
       <c r="N142" s="8"/>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -7130,7 +7128,7 @@
       </c>
       <c r="N144" s="8"/>
     </row>
-    <row r="145" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -7155,7 +7153,7 @@
       <c r="N145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -7180,7 +7178,7 @@
       <c r="N146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -7205,7 +7203,7 @@
       <c r="N147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -7887,7 +7885,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -7909,7 +7907,7 @@
       <c r="N176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -7934,7 +7932,7 @@
       <c r="N177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -8384,7 +8382,7 @@
       </c>
       <c r="N195" s="8"/>
     </row>
-    <row r="196" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -8520,7 +8518,7 @@
       </c>
       <c r="N201" s="8"/>
     </row>
-    <row r="202" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -8590,7 +8588,7 @@
       <c r="G204" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N204" s="47" t="s">
+      <c r="N204" s="41" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8657,7 +8655,7 @@
       </c>
       <c r="N207" s="8"/>
     </row>
-    <row r="208" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -8732,7 +8730,7 @@
       </c>
       <c r="N210" s="8"/>
     </row>
-    <row r="211" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -8757,7 +8755,7 @@
       <c r="N211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -8782,7 +8780,7 @@
       <c r="N212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -8807,7 +8805,7 @@
       <c r="N213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:18" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -8879,7 +8877,7 @@
       </c>
       <c r="N216" s="8"/>
     </row>
-    <row r="217" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -8904,7 +8902,7 @@
       <c r="N217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -8929,7 +8927,7 @@
       <c r="N218" s="8"/>
       <c r="P218" s="8"/>
     </row>
-    <row r="219" spans="1:18" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -8954,7 +8952,7 @@
       <c r="N219" s="8"/>
       <c r="P219" s="8"/>
     </row>
-    <row r="220" spans="1:18" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -8979,7 +8977,7 @@
       <c r="N220" s="8"/>
       <c r="P220" s="8"/>
     </row>
-    <row r="221" spans="1:18" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -9004,512 +9002,505 @@
       <c r="N221" s="8"/>
       <c r="P221" s="8"/>
     </row>
-    <row r="222" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B222" s="9"/>
       <c r="N222" s="8"/>
       <c r="P222" s="8"/>
     </row>
-    <row r="223" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B223" s="9"/>
       <c r="N223" s="8"/>
       <c r="P223" s="8"/>
     </row>
-    <row r="224" spans="1:18" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B224" s="9"/>
       <c r="N224" s="8"/>
       <c r="P224" s="8"/>
     </row>
-    <row r="225" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B225" s="9"/>
       <c r="N225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B226" s="9"/>
       <c r="N226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B227" s="9"/>
       <c r="N227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B228" s="9"/>
       <c r="N228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B229" s="9"/>
       <c r="N229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B230" s="9"/>
       <c r="N230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B231" s="9"/>
       <c r="N231" s="8"/>
       <c r="P231" s="8"/>
     </row>
-    <row r="232" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B232" s="9"/>
       <c r="N232" s="8"/>
       <c r="P232" s="8"/>
     </row>
-    <row r="233" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B233" s="9"/>
       <c r="N233" s="8"/>
       <c r="P233" s="8"/>
     </row>
-    <row r="234" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N234" s="8"/>
       <c r="P234" s="8"/>
     </row>
-    <row r="235" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N235" s="8"/>
       <c r="P235" s="8"/>
     </row>
-    <row r="236" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N236" s="8"/>
       <c r="P236" s="8"/>
     </row>
-    <row r="237" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N237" s="8"/>
       <c r="P237" s="8"/>
     </row>
-    <row r="238" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N238" s="8"/>
       <c r="P238" s="8"/>
     </row>
-    <row r="239" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N239" s="8"/>
       <c r="P239" s="8"/>
     </row>
-    <row r="240" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N240" s="8"/>
       <c r="P240" s="8"/>
     </row>
-    <row r="241" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N241" s="8"/>
       <c r="P241" s="8"/>
     </row>
-    <row r="242" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N242" s="8"/>
       <c r="P242" s="8"/>
     </row>
-    <row r="243" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N243" s="8"/>
       <c r="P243" s="8"/>
     </row>
-    <row r="244" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N244" s="8"/>
       <c r="P244" s="8"/>
     </row>
-    <row r="245" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N245" s="8"/>
       <c r="P245" s="8"/>
     </row>
-    <row r="246" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N246" s="8"/>
       <c r="P246" s="8"/>
     </row>
-    <row r="247" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N247" s="8"/>
       <c r="P247" s="8"/>
     </row>
-    <row r="248" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N248" s="8"/>
       <c r="P248" s="8"/>
     </row>
-    <row r="249" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N249" s="8"/>
       <c r="P249" s="8"/>
     </row>
-    <row r="250" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N250" s="8"/>
       <c r="P250" s="8"/>
     </row>
-    <row r="251" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N251" s="8"/>
       <c r="P251" s="8"/>
     </row>
-    <row r="252" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N252" s="8"/>
       <c r="P252" s="8"/>
     </row>
-    <row r="253" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N253" s="8"/>
       <c r="P253" s="8"/>
     </row>
-    <row r="254" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B254" s="9"/>
       <c r="N254" s="8"/>
       <c r="P254" s="8"/>
     </row>
-    <row r="255" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N255" s="8"/>
       <c r="P255" s="8"/>
     </row>
-    <row r="256" spans="2:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N256" s="8"/>
       <c r="P256" s="8"/>
     </row>
-    <row r="257" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N257" s="8"/>
       <c r="P257" s="8"/>
     </row>
-    <row r="258" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N258" s="8"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N259" s="8"/>
       <c r="P259" s="8"/>
     </row>
-    <row r="260" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N260" s="8"/>
       <c r="P260" s="8"/>
     </row>
-    <row r="261" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N261" s="8"/>
       <c r="P261" s="8"/>
     </row>
-    <row r="262" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N262" s="8"/>
       <c r="P262" s="8"/>
     </row>
-    <row r="263" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N263" s="8"/>
       <c r="P263" s="8"/>
     </row>
-    <row r="264" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N264" s="8"/>
       <c r="P264" s="8"/>
     </row>
-    <row r="265" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N265" s="8"/>
       <c r="P265" s="8"/>
     </row>
-    <row r="266" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N266" s="8"/>
       <c r="P266" s="8"/>
     </row>
-    <row r="267" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N267" s="8"/>
       <c r="P267" s="8"/>
     </row>
-    <row r="268" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N268" s="8"/>
       <c r="P268" s="8"/>
     </row>
-    <row r="269" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N269" s="8"/>
       <c r="P269" s="8"/>
     </row>
-    <row r="270" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N270" s="8"/>
       <c r="P270" s="8"/>
     </row>
-    <row r="271" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N271" s="8"/>
       <c r="P271" s="8"/>
     </row>
-    <row r="272" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N272" s="8"/>
       <c r="P272" s="8"/>
     </row>
-    <row r="273" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N273" s="8"/>
       <c r="P273" s="8"/>
     </row>
-    <row r="274" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N274" s="8"/>
       <c r="P274" s="8"/>
     </row>
-    <row r="275" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N275" s="8"/>
       <c r="P275" s="8"/>
     </row>
-    <row r="276" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N276" s="8"/>
       <c r="P276" s="8"/>
     </row>
-    <row r="277" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N277" s="8"/>
       <c r="P277" s="8"/>
     </row>
-    <row r="278" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N278" s="8"/>
       <c r="P278" s="8"/>
     </row>
-    <row r="279" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N279" s="8"/>
       <c r="P279" s="8"/>
     </row>
-    <row r="280" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N280" s="8"/>
       <c r="P280" s="8"/>
     </row>
-    <row r="281" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N281" s="8"/>
       <c r="P281" s="8"/>
     </row>
-    <row r="282" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N282" s="8"/>
       <c r="P282" s="8"/>
     </row>
-    <row r="283" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N283" s="8"/>
       <c r="P283" s="8"/>
     </row>
-    <row r="284" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N284" s="8"/>
       <c r="P284" s="8"/>
     </row>
-    <row r="285" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N285" s="8"/>
       <c r="P285" s="8"/>
     </row>
-    <row r="286" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N286" s="8"/>
       <c r="P286" s="8"/>
     </row>
-    <row r="287" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N287" s="8"/>
       <c r="P287" s="8"/>
     </row>
-    <row r="288" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N288" s="8"/>
       <c r="P288" s="8"/>
     </row>
-    <row r="289" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N289" s="8"/>
       <c r="P289" s="8"/>
     </row>
-    <row r="290" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N290" s="8"/>
       <c r="P290" s="8"/>
     </row>
-    <row r="291" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N291" s="8"/>
       <c r="P291" s="8"/>
     </row>
-    <row r="292" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N292" s="8"/>
       <c r="P292" s="8"/>
     </row>
-    <row r="293" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N293" s="8"/>
       <c r="P293" s="8"/>
     </row>
-    <row r="294" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N294" s="8"/>
       <c r="P294" s="8"/>
     </row>
-    <row r="295" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N295" s="8"/>
       <c r="P295" s="8"/>
     </row>
-    <row r="296" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N296" s="8"/>
       <c r="P296" s="8"/>
     </row>
-    <row r="297" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N297" s="8"/>
       <c r="P297" s="8"/>
     </row>
-    <row r="298" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N298" s="8"/>
       <c r="P298" s="8"/>
     </row>
-    <row r="299" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N299" s="8"/>
       <c r="P299" s="8"/>
     </row>
-    <row r="300" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N300" s="8"/>
       <c r="P300" s="8"/>
     </row>
-    <row r="301" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N301" s="8"/>
       <c r="P301" s="8"/>
     </row>
-    <row r="302" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N302" s="8"/>
       <c r="P302" s="8"/>
     </row>
-    <row r="303" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N303" s="8"/>
       <c r="P303" s="8"/>
     </row>
-    <row r="304" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N304" s="8"/>
       <c r="P304" s="8"/>
     </row>
-    <row r="305" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N305" s="8"/>
       <c r="P305" s="8"/>
     </row>
-    <row r="306" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N306" s="8"/>
       <c r="P306" s="8"/>
     </row>
-    <row r="307" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N307" s="8"/>
       <c r="P307" s="8"/>
     </row>
-    <row r="308" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N308" s="8"/>
       <c r="P308" s="8"/>
     </row>
-    <row r="309" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N309" s="8"/>
       <c r="P309" s="8"/>
     </row>
-    <row r="310" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N310" s="8"/>
       <c r="P310" s="8"/>
     </row>
-    <row r="311" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N311" s="8"/>
       <c r="P311" s="8"/>
     </row>
-    <row r="312" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N312" s="8"/>
       <c r="P312" s="8"/>
     </row>
-    <row r="313" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N313" s="8"/>
       <c r="P313" s="8"/>
     </row>
-    <row r="314" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N314" s="8"/>
       <c r="P314" s="8"/>
     </row>
-    <row r="315" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N315" s="8"/>
       <c r="P315" s="8"/>
     </row>
-    <row r="316" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N316" s="8"/>
       <c r="P316" s="8"/>
     </row>
-    <row r="317" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N317" s="8"/>
       <c r="P317" s="8"/>
     </row>
-    <row r="318" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N318" s="8"/>
       <c r="P318" s="8"/>
     </row>
-    <row r="319" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N319" s="8"/>
       <c r="P319" s="8"/>
     </row>
-    <row r="320" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N320" s="8"/>
       <c r="P320" s="8"/>
     </row>
-    <row r="321" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N321" s="8"/>
       <c r="P321" s="8"/>
     </row>
-    <row r="322" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N322" s="8"/>
       <c r="P322" s="8"/>
     </row>
-    <row r="323" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N323" s="8"/>
       <c r="P323" s="8"/>
     </row>
-    <row r="324" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N324" s="8"/>
       <c r="P324" s="8"/>
     </row>
-    <row r="325" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N325" s="8"/>
       <c r="P325" s="8"/>
     </row>
-    <row r="326" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N326" s="8"/>
       <c r="P326" s="8"/>
     </row>
-    <row r="327" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N327" s="8"/>
       <c r="P327" s="8"/>
     </row>
-    <row r="328" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N328" s="8"/>
       <c r="P328" s="8"/>
     </row>
-    <row r="329" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N329" s="8"/>
       <c r="P329" s="8"/>
     </row>
-    <row r="330" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N330" s="8"/>
       <c r="P330" s="8"/>
     </row>
-    <row r="331" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N331" s="8"/>
       <c r="P331" s="8"/>
     </row>
-    <row r="332" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N332" s="8"/>
       <c r="P332" s="8"/>
     </row>
-    <row r="333" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N333" s="8"/>
       <c r="P333" s="8"/>
     </row>
-    <row r="334" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N334" s="8"/>
       <c r="P334" s="8"/>
     </row>
-    <row r="335" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N335" s="8"/>
       <c r="P335" s="8"/>
     </row>
-    <row r="336" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N336" s="8"/>
       <c r="P336" s="8"/>
     </row>
-    <row r="337" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N337" s="8"/>
       <c r="P337" s="8"/>
     </row>
-    <row r="338" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N338" s="8"/>
       <c r="P338" s="8"/>
     </row>
-    <row r="339" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N339" s="8"/>
       <c r="P339" s="8"/>
     </row>
-    <row r="340" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N340" s="8"/>
       <c r="P340" s="8"/>
     </row>
-    <row r="341" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N341" s="8"/>
       <c r="P341" s="8"/>
     </row>
-    <row r="342" spans="14:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N342" s="8"/>
       <c r="P342" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH342" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Client"/>
-        <filter val="Client, Service"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AH342" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="use-of-json" xr:uid="{69F88824-4DB6-D14A-AC96-19A8C1D71C9C}"/>
@@ -9720,6 +9711,7 @@
     <hyperlink ref="B203" r:id="rId206" location="jwt-signing-algorithm" xr:uid="{9A163070-DF08-3D4B-9922-B905FA9829BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -9762,14 +9754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -10259,15 +10251,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
@@ -10278,6 +10261,15 @@
     <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10301,14 +10293,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10324,4 +10308,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>